--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_15_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_15_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1495513.390880008</v>
+        <v>1493214.737965759</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23486610.55974439</v>
+        <v>23486610.55974441</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3401279.638466293</v>
+        <v>3401279.638466296</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861474</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -727,7 +727,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>1.283897344658564</v>
       </c>
     </row>
     <row r="3">
@@ -740,13 +740,13 @@
         <v>28.11631013281968</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="E3" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>28.11631013281968</v>
+        <v>24.76484596498758</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>28.11631013281968</v>
       </c>
       <c r="S4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362102</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -983,67 +983,67 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
+        <v>24.76484596498756</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>24.76484596498758</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="Y6" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="H7" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="I7" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1217,67 +1217,67 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="E9" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1296,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>24.76484596498756</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>24.76484596498756</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>82.47213619289623</v>
+        <v>398.8272831086575</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.2884438087945</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6538892153287</v>
+        <v>168.8719683929845</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1542,13 +1542,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>119.5934762903542</v>
+        <v>40.63055517795434</v>
       </c>
       <c r="H13" t="n">
         <v>136.5021430764245</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>78.96292111239987</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.8272831086575</v>
       </c>
       <c r="H14" t="n">
-        <v>279.8515591943052</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>69.86271419048811</v>
       </c>
       <c r="T14" t="n">
-        <v>212.2884438087945</v>
+        <v>83.12029766128242</v>
       </c>
       <c r="U14" t="n">
         <v>255.6538892153287</v>
@@ -1672,10 +1672,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>394.6635031914821</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.00704147811216</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -1830,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>99.88099004181996</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>10.05956095362206</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>69.86271419048811</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.2884438087945</v>
       </c>
       <c r="U17" t="n">
         <v>255.6538892153287</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>101.3422119435617</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2004,7 +2004,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>29.99556994304018</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2013,7 +2013,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>46.83798026219957</v>
       </c>
       <c r="G19" t="n">
         <v>163.9357313989399</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>16.95209132584753</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>156.9548995066969</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>348.9603074258524</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.8272831086575</v>
+        <v>64.94795062497043</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.2884438087945</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>255.6538892153287</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>16.95209132584753</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>156.9548995066969</v>
@@ -2304,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>99.88099004181996</v>
+        <v>116.8330813676673</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.86271419048833</v>
+        <v>69.86271419048811</v>
       </c>
       <c r="T23" t="n">
         <v>212.2884438087945</v>
       </c>
       <c r="U23" t="n">
-        <v>255.653889215329</v>
+        <v>255.6538892153272</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -2478,7 +2478,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>46.94766126888732</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -2493,10 +2493,10 @@
         <v>163.9357313989399</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>136.5021430764245</v>
       </c>
       <c r="I25" t="n">
-        <v>75.2077966419911</v>
+        <v>78.96292111239987</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>16.95209132584753</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>156.9548995066969</v>
@@ -2608,10 +2608,10 @@
         <v>69.86271419048811</v>
       </c>
       <c r="T26" t="n">
-        <v>212.2884438087945</v>
+        <v>212.2884438087939</v>
       </c>
       <c r="U26" t="n">
-        <v>255.653889215329</v>
+        <v>255.6538892153287</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -2794,7 +2794,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868323</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
@@ -2845,10 +2845,10 @@
         <v>69.86271419048811</v>
       </c>
       <c r="T29" t="n">
-        <v>212.2884438087945</v>
+        <v>212.2884438087939</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6538892153287</v>
+        <v>255.653889215329</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -2964,7 +2964,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>23.6784638521067</v>
+        <v>163.9357313989399</v>
       </c>
       <c r="H31" t="n">
         <v>136.5021430764245</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>16.95209132584753</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.9548995066969</v>
+        <v>33.6497232857113</v>
       </c>
       <c r="T31" t="n">
         <v>238.0916429637043</v>
@@ -3085,7 +3085,7 @@
         <v>212.2884438087945</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6538892153272</v>
+        <v>255.6538892153299</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -3195,7 +3195,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>41.24094756768915</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.95209132584753</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>156.9548995066969</v>
@@ -3252,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>99.88099004181974</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3280,7 +3280,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.8272831086575</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.2884438087945</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>85.09095158554604</v>
       </c>
       <c r="X35" t="n">
-        <v>361.5713695539428</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3441,7 +3441,7 @@
         <v>163.9357313989399</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>136.5021430764245</v>
       </c>
       <c r="I37" t="n">
         <v>78.96292111239987</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.95209132584753</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>156.9548995066969</v>
@@ -3483,13 +3483,13 @@
         <v>277.346676635984</v>
       </c>
       <c r="V37" t="n">
-        <v>275.1392282476431</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>116.8330813676673</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3517,10 +3517,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.8272831086575</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>279.8515591943052</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>69.86271419048811</v>
       </c>
       <c r="T38" t="n">
-        <v>212.2884438087945</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>221.1977797045808</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>168.5120969282714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3678,10 +3678,10 @@
         <v>163.9357313989399</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>13.19696685543886</v>
       </c>
       <c r="I40" t="n">
-        <v>75.20779664199138</v>
+        <v>78.96292111239987</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>16.95209132584753</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>156.9548995066969</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>69.86271419048811</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.2884438087945</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>111.0095446106034</v>
+        <v>174.5793867332778</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>64.95913280395952</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>16.95209132584753</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>16.69763195986529</v>
+        <v>156.9548995066969</v>
       </c>
       <c r="T43" t="n">
         <v>238.0916429637043</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3985,13 +3985,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>61.3405691859798</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.8272831086575</v>
+        <v>221.197779704581</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>69.86271419048811</v>
       </c>
       <c r="T44" t="n">
-        <v>212.2884438087945</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4143,7 +4143,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>24.28885624184201</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -4188,7 +4188,7 @@
         <v>156.9548995066969</v>
       </c>
       <c r="T46" t="n">
-        <v>97.83437541687262</v>
+        <v>238.0916429637043</v>
       </c>
       <c r="U46" t="n">
         <v>277.346676635984</v>
@@ -4330,28 +4330,28 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J2" t="n">
-        <v>30.08445184211706</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="K2" t="n">
-        <v>30.08445184211706</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="L2" t="n">
         <v>30.08445184211706</v>
       </c>
       <c r="M2" t="n">
-        <v>30.08445184211706</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="N2" t="n">
-        <v>30.08445184211706</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="O2" t="n">
-        <v>30.08445184211706</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="P2" t="n">
-        <v>57.91959887360855</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="Q2" t="n">
-        <v>85.75474590510004</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="R2" t="n">
         <v>112.4652405312787</v>
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.26430073485544</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26430073485544</v>
+        <v>30.6496180761</v>
       </c>
       <c r="D3" t="n">
-        <v>27.26430073485544</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="E3" t="n">
         <v>2.249304810625575</v>
@@ -4406,25 +4406,25 @@
         <v>2.249304810625575</v>
       </c>
       <c r="I3" t="n">
-        <v>9.695947772537416</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="J3" t="n">
-        <v>9.695947772537416</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="K3" t="n">
-        <v>28.95979943680427</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="L3" t="n">
+        <v>2.249304810625575</v>
+      </c>
+      <c r="M3" t="n">
+        <v>30.08445184211706</v>
+      </c>
+      <c r="N3" t="n">
         <v>56.79494646829576</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>84.63009349978725</v>
-      </c>
-      <c r="N3" t="n">
-        <v>112.4652405312787</v>
-      </c>
-      <c r="O3" t="n">
-        <v>112.4652405312787</v>
       </c>
       <c r="P3" t="n">
         <v>112.4652405312787</v>
@@ -4445,16 +4445,16 @@
         <v>112.4652405312787</v>
       </c>
       <c r="V3" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="W3" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="X3" t="n">
-        <v>55.66461400032987</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="Y3" t="n">
-        <v>55.66461400032987</v>
+        <v>87.45024460704886</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.249304810625575</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="C4" t="n">
-        <v>2.249304810625575</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="D4" t="n">
-        <v>2.249304810625575</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="E4" t="n">
-        <v>2.249304810625575</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="F4" t="n">
-        <v>2.249304810625575</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="G4" t="n">
         <v>2.249304810625575</v>
@@ -4491,22 +4491,22 @@
         <v>30.08445184211706</v>
       </c>
       <c r="K4" t="n">
-        <v>30.08445184211706</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="L4" t="n">
-        <v>57.91959887360855</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="M4" t="n">
-        <v>85.75474590510004</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="N4" t="n">
-        <v>85.75474590510004</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="O4" t="n">
-        <v>85.75474590510004</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="P4" t="n">
-        <v>112.4652405312787</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="Q4" t="n">
         <v>112.4652405312787</v>
@@ -4515,25 +4515,25 @@
         <v>84.0649272658043</v>
       </c>
       <c r="S4" t="n">
-        <v>55.66461400032987</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T4" t="n">
-        <v>55.66461400032987</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="U4" t="n">
-        <v>30.6496180761</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="V4" t="n">
-        <v>30.6496180761</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="W4" t="n">
-        <v>30.6496180761</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="X4" t="n">
-        <v>30.6496180761</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="Y4" t="n">
-        <v>30.6496180761</v>
+        <v>84.0649272658043</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>87.68081948359846</v>
+        <v>87.68081948359844</v>
       </c>
       <c r="C5" t="n">
-        <v>64.82049353730264</v>
+        <v>64.82049353730262</v>
       </c>
       <c r="D5" t="n">
-        <v>45.56827676270699</v>
+        <v>45.56827676270698</v>
       </c>
       <c r="E5" t="n">
         <v>23.63174095096858</v>
@@ -4567,10 +4567,10 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J5" t="n">
-        <v>2.249304810625575</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="K5" t="n">
-        <v>2.249304810625575</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="L5" t="n">
         <v>30.08445184211706</v>
@@ -4579,16 +4579,16 @@
         <v>30.08445184211706</v>
       </c>
       <c r="N5" t="n">
+        <v>30.08445184211706</v>
+      </c>
+      <c r="O5" t="n">
+        <v>30.08445184211706</v>
+      </c>
+      <c r="P5" t="n">
         <v>57.91959887360855</v>
       </c>
-      <c r="O5" t="n">
-        <v>84.63009349978725</v>
-      </c>
-      <c r="P5" t="n">
-        <v>112.4652405312787</v>
-      </c>
       <c r="Q5" t="n">
-        <v>112.4652405312787</v>
+        <v>85.75474590510004</v>
       </c>
       <c r="R5" t="n">
         <v>112.4652405312787</v>
@@ -4609,7 +4609,7 @@
         <v>112.4652405312787</v>
       </c>
       <c r="X5" t="n">
-        <v>104.7856457394301</v>
+        <v>104.78564573943</v>
       </c>
       <c r="Y5" t="n">
         <v>103.4887797347244</v>
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59.04993134157444</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="C6" t="n">
-        <v>59.04993134157444</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="D6" t="n">
-        <v>59.04993134157444</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="E6" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="F6" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="G6" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="H6" t="n">
         <v>2.249304810625575</v>
@@ -4652,46 +4652,46 @@
         <v>37.5310948040289</v>
       </c>
       <c r="L6" t="n">
-        <v>65.36624183552038</v>
+        <v>37.5310948040289</v>
       </c>
       <c r="M6" t="n">
+        <v>37.5310948040289</v>
+      </c>
+      <c r="N6" t="n">
+        <v>37.5310948040289</v>
+      </c>
+      <c r="O6" t="n">
+        <v>56.79494646829576</v>
+      </c>
+      <c r="P6" t="n">
+        <v>56.79494646829576</v>
+      </c>
+      <c r="Q6" t="n">
         <v>84.63009349978725</v>
-      </c>
-      <c r="N6" t="n">
-        <v>84.63009349978725</v>
-      </c>
-      <c r="O6" t="n">
-        <v>84.63009349978725</v>
-      </c>
-      <c r="P6" t="n">
-        <v>112.4652405312787</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>112.4652405312787</v>
       </c>
       <c r="R6" t="n">
         <v>112.4652405312787</v>
       </c>
       <c r="S6" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T6" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="U6" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="V6" t="n">
-        <v>87.45024460704886</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="W6" t="n">
-        <v>87.45024460704886</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="X6" t="n">
-        <v>87.45024460704886</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="Y6" t="n">
-        <v>59.04993134157444</v>
+        <v>27.26430073485544</v>
       </c>
     </row>
     <row r="7">
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.04993134157444</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="C7" t="n">
-        <v>59.04993134157444</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="D7" t="n">
-        <v>59.04993134157444</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="E7" t="n">
-        <v>59.04993134157444</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="F7" t="n">
-        <v>59.04993134157444</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="G7" t="n">
-        <v>59.04993134157444</v>
+        <v>30.6496180761</v>
       </c>
       <c r="H7" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="I7" t="n">
         <v>2.249304810625575</v>
       </c>
       <c r="J7" t="n">
+        <v>2.249304810625575</v>
+      </c>
+      <c r="K7" t="n">
         <v>30.08445184211706</v>
       </c>
-      <c r="K7" t="n">
-        <v>57.91959887360855</v>
-      </c>
       <c r="L7" t="n">
-        <v>57.91959887360855</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="M7" t="n">
-        <v>84.63009349978725</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="N7" t="n">
         <v>84.63009349978725</v>
       </c>
       <c r="O7" t="n">
-        <v>112.4652405312787</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="P7" t="n">
-        <v>112.4652405312787</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="Q7" t="n">
         <v>112.4652405312787</v>
@@ -4761,16 +4761,16 @@
         <v>84.0649272658043</v>
       </c>
       <c r="V7" t="n">
-        <v>59.04993134157444</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="W7" t="n">
-        <v>59.04993134157444</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="X7" t="n">
-        <v>59.04993134157444</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="Y7" t="n">
-        <v>59.04993134157444</v>
+        <v>84.0649272658043</v>
       </c>
     </row>
     <row r="8">
@@ -4807,25 +4807,25 @@
         <v>30.08445184211706</v>
       </c>
       <c r="K8" t="n">
-        <v>56.79494646829576</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="L8" t="n">
-        <v>56.79494646829576</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="M8" t="n">
-        <v>84.63009349978725</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="N8" t="n">
-        <v>84.63009349978725</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="O8" t="n">
-        <v>84.63009349978725</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="P8" t="n">
-        <v>84.63009349978725</v>
+        <v>85.75474590510004</v>
       </c>
       <c r="Q8" t="n">
-        <v>112.4652405312787</v>
+        <v>85.75474590510004</v>
       </c>
       <c r="R8" t="n">
         <v>112.4652405312787</v>
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>59.04993134157444</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="C9" t="n">
-        <v>59.04993134157444</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="D9" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="E9" t="n">
         <v>2.249304810625575</v>
@@ -4883,25 +4883,25 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J9" t="n">
-        <v>2.249304810625575</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="K9" t="n">
-        <v>2.249304810625575</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="L9" t="n">
-        <v>2.249304810625575</v>
+        <v>85.75474590510004</v>
       </c>
       <c r="M9" t="n">
-        <v>30.08445184211706</v>
+        <v>85.75474590510004</v>
       </c>
       <c r="N9" t="n">
-        <v>57.91959887360855</v>
+        <v>85.75474590510004</v>
       </c>
       <c r="O9" t="n">
         <v>85.75474590510004</v>
       </c>
       <c r="P9" t="n">
-        <v>112.4652405312787</v>
+        <v>85.75474590510004</v>
       </c>
       <c r="Q9" t="n">
         <v>112.4652405312787</v>
@@ -4910,25 +4910,25 @@
         <v>112.4652405312787</v>
       </c>
       <c r="S9" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T9" t="n">
-        <v>84.0649272658043</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="U9" t="n">
-        <v>84.0649272658043</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="V9" t="n">
-        <v>84.0649272658043</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="W9" t="n">
-        <v>84.0649272658043</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="X9" t="n">
-        <v>59.04993134157444</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="Y9" t="n">
-        <v>59.04993134157444</v>
+        <v>2.249304810625575</v>
       </c>
     </row>
     <row r="10">
@@ -4944,16 +4944,16 @@
         <v>55.66461400032987</v>
       </c>
       <c r="D10" t="n">
-        <v>27.26430073485544</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="E10" t="n">
-        <v>27.26430073485544</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="F10" t="n">
-        <v>27.26430073485544</v>
+        <v>30.6496180761</v>
       </c>
       <c r="G10" t="n">
-        <v>27.26430073485544</v>
+        <v>30.6496180761</v>
       </c>
       <c r="H10" t="n">
         <v>2.249304810625575</v>
@@ -4962,10 +4962,10 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J10" t="n">
-        <v>2.249304810625575</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="K10" t="n">
-        <v>28.95979943680427</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="L10" t="n">
         <v>56.79494646829576</v>
@@ -4974,13 +4974,13 @@
         <v>56.79494646829576</v>
       </c>
       <c r="N10" t="n">
+        <v>56.79494646829576</v>
+      </c>
+      <c r="O10" t="n">
+        <v>56.79494646829576</v>
+      </c>
+      <c r="P10" t="n">
         <v>84.63009349978725</v>
-      </c>
-      <c r="O10" t="n">
-        <v>84.63009349978725</v>
-      </c>
-      <c r="P10" t="n">
-        <v>112.4652405312787</v>
       </c>
       <c r="Q10" t="n">
         <v>112.4652405312787</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>993.0211883295472</v>
+        <v>1736.717220636353</v>
       </c>
       <c r="C11" t="n">
-        <v>566.1204583428473</v>
+        <v>1309.816490649654</v>
       </c>
       <c r="D11" t="n">
-        <v>566.1204583428473</v>
+        <v>886.5238698346539</v>
       </c>
       <c r="E11" t="n">
-        <v>566.1204583428473</v>
+        <v>460.5469299825114</v>
       </c>
       <c r="F11" t="n">
-        <v>140.9962765322475</v>
+        <v>460.5469299825114</v>
       </c>
       <c r="G11" t="n">
         <v>57.69108845861495</v>
@@ -5041,28 +5041,28 @@
         <v>79.53261889552356</v>
       </c>
       <c r="J11" t="n">
-        <v>173.7882360108207</v>
+        <v>565.5174547184469</v>
       </c>
       <c r="K11" t="n">
-        <v>887.7154556861807</v>
+        <v>715.027200741088</v>
       </c>
       <c r="L11" t="n">
-        <v>1390.530742935282</v>
+        <v>1428.954420416448</v>
       </c>
       <c r="M11" t="n">
-        <v>2104.457962610642</v>
+        <v>1647.155311530534</v>
       </c>
       <c r="N11" t="n">
-        <v>2326.939316126522</v>
+        <v>1869.636665046414</v>
       </c>
       <c r="O11" t="n">
-        <v>2534.855169470429</v>
+        <v>2077.552518390321</v>
       </c>
       <c r="P11" t="n">
-        <v>2706.700127356599</v>
+        <v>2249.397476276491</v>
       </c>
       <c r="Q11" t="n">
-        <v>2827.920462748282</v>
+        <v>2675.681804470531</v>
       </c>
       <c r="R11" t="n">
         <v>2884.554422930747</v>
@@ -5071,22 +5071,22 @@
         <v>2884.554422930747</v>
       </c>
       <c r="T11" t="n">
-        <v>2884.554422930747</v>
+        <v>2670.121651406713</v>
       </c>
       <c r="U11" t="n">
-        <v>2626.318171198092</v>
+        <v>2499.543905555213</v>
       </c>
       <c r="V11" t="n">
-        <v>2626.318171198092</v>
+        <v>2142.054490681463</v>
       </c>
       <c r="W11" t="n">
-        <v>2229.926821498439</v>
+        <v>2142.054490681463</v>
       </c>
       <c r="X11" t="n">
-        <v>1818.206822666187</v>
+        <v>2142.054490681463</v>
       </c>
       <c r="Y11" t="n">
-        <v>1412.869552621077</v>
+        <v>1736.717220636353</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>57.69108845861495</v>
       </c>
       <c r="I12" t="n">
-        <v>68.45996495438216</v>
+        <v>91.91727079879399</v>
       </c>
       <c r="J12" t="n">
-        <v>121.5400646621215</v>
+        <v>437.0998629761244</v>
       </c>
       <c r="K12" t="n">
-        <v>224.9625685543398</v>
+        <v>540.5223668683427</v>
       </c>
       <c r="L12" t="n">
-        <v>436.5775105318807</v>
+        <v>687.1140994188501</v>
       </c>
       <c r="M12" t="n">
-        <v>610.7886392109813</v>
+        <v>861.3252280979507</v>
       </c>
       <c r="N12" t="n">
-        <v>791.9520228836345</v>
+        <v>1042.488611770604</v>
       </c>
       <c r="O12" t="n">
-        <v>1505.879242558995</v>
+        <v>1204.606997971446</v>
       </c>
       <c r="P12" t="n">
-        <v>1632.851916830036</v>
+        <v>1331.579672242487</v>
       </c>
       <c r="Q12" t="n">
         <v>1709.617917594659</v>
@@ -5190,10 +5190,10 @@
         <v>316.3735322634419</v>
       </c>
       <c r="G13" t="n">
-        <v>195.5720410610639</v>
+        <v>275.3325674372254</v>
       </c>
       <c r="H13" t="n">
-        <v>57.69108845861495</v>
+        <v>137.4516148347764</v>
       </c>
       <c r="I13" t="n">
         <v>57.69108845861495</v>
@@ -5205,7 +5205,7 @@
         <v>463.5722733880319</v>
       </c>
       <c r="L13" t="n">
-        <v>915.2083926800956</v>
+        <v>915.2083926800954</v>
       </c>
       <c r="M13" t="n">
         <v>1408.610993194761</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1188.786233704725</v>
+        <v>1312.571841779811</v>
       </c>
       <c r="C14" t="n">
-        <v>1188.786233704725</v>
+        <v>885.6711117931112</v>
       </c>
       <c r="D14" t="n">
-        <v>765.493612889725</v>
+        <v>885.6711117931112</v>
       </c>
       <c r="E14" t="n">
-        <v>765.493612889725</v>
+        <v>885.6711117931112</v>
       </c>
       <c r="F14" t="n">
-        <v>340.3694310791253</v>
+        <v>460.5469299825114</v>
       </c>
       <c r="G14" t="n">
-        <v>340.3694310791253</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="H14" t="n">
         <v>57.69108845861495</v>
@@ -5278,22 +5278,22 @@
         <v>79.53261889552356</v>
       </c>
       <c r="J14" t="n">
-        <v>173.7882360108207</v>
+        <v>565.5174547184469</v>
       </c>
       <c r="K14" t="n">
-        <v>528.2422861807095</v>
+        <v>715.027200741088</v>
       </c>
       <c r="L14" t="n">
-        <v>1242.169505856069</v>
+        <v>906.5037975401815</v>
       </c>
       <c r="M14" t="n">
-        <v>1460.370396970155</v>
+        <v>1124.704688654267</v>
       </c>
       <c r="N14" t="n">
-        <v>1682.851750486035</v>
+        <v>1347.186042170147</v>
       </c>
       <c r="O14" t="n">
-        <v>1890.767603829943</v>
+        <v>1555.101895514055</v>
       </c>
       <c r="P14" t="n">
         <v>2062.612561716113</v>
@@ -5308,22 +5308,22 @@
         <v>2813.986024758537</v>
       </c>
       <c r="T14" t="n">
-        <v>2599.553253234503</v>
+        <v>2730.026128130979</v>
       </c>
       <c r="U14" t="n">
-        <v>2341.317001501848</v>
+        <v>2471.789876398324</v>
       </c>
       <c r="V14" t="n">
-        <v>1983.827586628097</v>
+        <v>2114.300461524574</v>
       </c>
       <c r="W14" t="n">
-        <v>1587.436236928444</v>
+        <v>1717.909111824921</v>
       </c>
       <c r="X14" t="n">
-        <v>1188.786233704725</v>
+        <v>1717.909111824921</v>
       </c>
       <c r="Y14" t="n">
-        <v>1188.786233704725</v>
+        <v>1312.571841779811</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>91.91727079879399</v>
       </c>
       <c r="J15" t="n">
-        <v>292.0187743740612</v>
+        <v>144.9973705065333</v>
       </c>
       <c r="K15" t="n">
-        <v>395.4412782662795</v>
+        <v>254.8400660515722</v>
       </c>
       <c r="L15" t="n">
-        <v>542.0330108167868</v>
+        <v>401.4317986020796</v>
       </c>
       <c r="M15" t="n">
-        <v>716.2441394958873</v>
+        <v>575.6429272811802</v>
       </c>
       <c r="N15" t="n">
-        <v>897.4075231685406</v>
+        <v>756.8063109538334</v>
       </c>
       <c r="O15" t="n">
-        <v>1611.334742843901</v>
+        <v>918.9246971546756</v>
       </c>
       <c r="P15" t="n">
-        <v>1738.307417114941</v>
+        <v>1632.851916830036</v>
       </c>
       <c r="Q15" t="n">
-        <v>1815.073417879565</v>
+        <v>1709.617917594659</v>
       </c>
       <c r="R15" t="n">
         <v>1839.929095123789</v>
@@ -5478,10 +5478,10 @@
         <v>1631.682157335297</v>
       </c>
       <c r="X16" t="n">
-        <v>1389.118260781102</v>
+        <v>1530.792268404165</v>
       </c>
       <c r="Y16" t="n">
-        <v>1162.775492470844</v>
+        <v>1304.449500093908</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2041.663903543567</v>
+        <v>350.5306037595516</v>
       </c>
       <c r="C17" t="n">
-        <v>1614.763173556867</v>
+        <v>350.5306037595516</v>
       </c>
       <c r="D17" t="n">
-        <v>1191.470552741867</v>
+        <v>340.3694310791253</v>
       </c>
       <c r="E17" t="n">
-        <v>765.493612889725</v>
+        <v>340.3694310791253</v>
       </c>
       <c r="F17" t="n">
         <v>340.3694310791253</v>
@@ -5524,16 +5524,16 @@
         <v>1037.225201708822</v>
       </c>
       <c r="M17" t="n">
-        <v>1751.152421384182</v>
+        <v>1255.426092822907</v>
       </c>
       <c r="N17" t="n">
-        <v>1973.633774900062</v>
+        <v>1477.907446338788</v>
       </c>
       <c r="O17" t="n">
-        <v>2181.549628243969</v>
+        <v>1685.823299682695</v>
       </c>
       <c r="P17" t="n">
-        <v>2353.394586130139</v>
+        <v>2214.851219993864</v>
       </c>
       <c r="Q17" t="n">
         <v>2827.920462748282</v>
@@ -5545,22 +5545,22 @@
         <v>2813.986024758537</v>
       </c>
       <c r="T17" t="n">
-        <v>2813.986024758537</v>
+        <v>2599.553253234503</v>
       </c>
       <c r="U17" t="n">
-        <v>2555.749773025882</v>
+        <v>2341.317001501848</v>
       </c>
       <c r="V17" t="n">
-        <v>2555.749773025882</v>
+        <v>1983.827586628097</v>
       </c>
       <c r="W17" t="n">
-        <v>2555.749773025882</v>
+        <v>1587.436236928444</v>
       </c>
       <c r="X17" t="n">
-        <v>2144.029774193629</v>
+        <v>1175.716238096191</v>
       </c>
       <c r="Y17" t="n">
-        <v>2041.663903543567</v>
+        <v>770.3789680510816</v>
       </c>
     </row>
     <row r="18">
@@ -5594,13 +5594,13 @@
         <v>91.91727079879399</v>
       </c>
       <c r="J18" t="n">
-        <v>198.6560165674134</v>
+        <v>437.0998629761244</v>
       </c>
       <c r="K18" t="n">
-        <v>302.0785204596317</v>
+        <v>841.7946114558912</v>
       </c>
       <c r="L18" t="n">
-        <v>448.670253010139</v>
+        <v>988.3863440063985</v>
       </c>
       <c r="M18" t="n">
         <v>1162.597472685499</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>972.6095237587783</v>
+        <v>989.7328483303413</v>
       </c>
       <c r="C19" t="n">
-        <v>942.3109682607579</v>
+        <v>817.7602852092573</v>
       </c>
       <c r="D19" t="n">
-        <v>778.9941953875286</v>
+        <v>654.443512336028</v>
       </c>
       <c r="E19" t="n">
-        <v>612.7859895403822</v>
+        <v>488.2353064888815</v>
       </c>
       <c r="F19" t="n">
         <v>440.9242153149426</v>
@@ -5679,7 +5679,7 @@
         <v>463.572273388032</v>
       </c>
       <c r="L19" t="n">
-        <v>915.2083926800958</v>
+        <v>915.2083926800956</v>
       </c>
       <c r="M19" t="n">
         <v>1408.610993194761</v>
@@ -5688,7 +5688,7 @@
         <v>1885.888822445159</v>
       </c>
       <c r="O19" t="n">
-        <v>2333.485767027292</v>
+        <v>2333.485767027291</v>
       </c>
       <c r="P19" t="n">
         <v>2702.951323608642</v>
@@ -5697,28 +5697,28 @@
         <v>2884.554422930747</v>
       </c>
       <c r="R19" t="n">
-        <v>2867.431098359184</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="S19" t="n">
-        <v>2708.890795827167</v>
+        <v>2726.01412039873</v>
       </c>
       <c r="T19" t="n">
-        <v>2468.394186772921</v>
+        <v>2485.517511344484</v>
       </c>
       <c r="U19" t="n">
-        <v>2188.246028554755</v>
+        <v>2205.369353126318</v>
       </c>
       <c r="V19" t="n">
-        <v>1906.534561162784</v>
+        <v>1923.657885734347</v>
       </c>
       <c r="W19" t="n">
-        <v>1631.682157335297</v>
+        <v>1648.80548190686</v>
       </c>
       <c r="X19" t="n">
-        <v>1389.118260781102</v>
+        <v>1406.241585352665</v>
       </c>
       <c r="Y19" t="n">
-        <v>1162.775492470844</v>
+        <v>1179.898817042407</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1238.156270809124</v>
+        <v>1824.58955145333</v>
       </c>
       <c r="C20" t="n">
-        <v>885.6711117931112</v>
+        <v>1397.68882146663</v>
       </c>
       <c r="D20" t="n">
-        <v>885.6711117931112</v>
+        <v>974.3962006516304</v>
       </c>
       <c r="E20" t="n">
-        <v>885.6711117931112</v>
+        <v>548.4192607994879</v>
       </c>
       <c r="F20" t="n">
-        <v>460.5469299825114</v>
+        <v>123.2950789888881</v>
       </c>
       <c r="G20" t="n">
         <v>57.69108845861495</v>
@@ -5752,28 +5752,28 @@
         <v>79.53261889552356</v>
       </c>
       <c r="J20" t="n">
-        <v>173.7882360108207</v>
+        <v>565.5174547184469</v>
       </c>
       <c r="K20" t="n">
-        <v>887.7154556861807</v>
+        <v>715.027200741088</v>
       </c>
       <c r="L20" t="n">
-        <v>1079.192052485274</v>
+        <v>906.5037975401815</v>
       </c>
       <c r="M20" t="n">
-        <v>1297.39294359936</v>
+        <v>1460.370396970155</v>
       </c>
       <c r="N20" t="n">
-        <v>1835.090408763786</v>
+        <v>1682.851750486035</v>
       </c>
       <c r="O20" t="n">
-        <v>2043.006262107693</v>
+        <v>1890.767603829943</v>
       </c>
       <c r="P20" t="n">
-        <v>2214.851219993864</v>
+        <v>2062.612561716113</v>
       </c>
       <c r="Q20" t="n">
-        <v>2827.920462748282</v>
+        <v>2675.681804470531</v>
       </c>
       <c r="R20" t="n">
         <v>2884.554422930747</v>
@@ -5782,22 +5782,22 @@
         <v>2884.554422930747</v>
       </c>
       <c r="T20" t="n">
-        <v>2670.121651406713</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="U20" t="n">
-        <v>2411.885399674057</v>
+        <v>2626.318171198092</v>
       </c>
       <c r="V20" t="n">
-        <v>2054.395984800307</v>
+        <v>2626.318171198092</v>
       </c>
       <c r="W20" t="n">
-        <v>1658.004635100654</v>
+        <v>2229.926821498439</v>
       </c>
       <c r="X20" t="n">
-        <v>1658.004635100654</v>
+        <v>2229.926821498439</v>
       </c>
       <c r="Y20" t="n">
-        <v>1658.004635100654</v>
+        <v>1824.58955145333</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>57.69108845861495</v>
       </c>
       <c r="I21" t="n">
-        <v>68.45996495438216</v>
+        <v>91.91727079879399</v>
       </c>
       <c r="J21" t="n">
-        <v>121.5400646621215</v>
+        <v>437.0998629761244</v>
       </c>
       <c r="K21" t="n">
-        <v>224.9625685543398</v>
+        <v>540.5223668683427</v>
       </c>
       <c r="L21" t="n">
-        <v>938.8897882296999</v>
+        <v>687.1140994188501</v>
       </c>
       <c r="M21" t="n">
-        <v>1113.1009169088</v>
+        <v>861.3252280979507</v>
       </c>
       <c r="N21" t="n">
-        <v>1294.264300581454</v>
+        <v>1042.488611770604</v>
       </c>
       <c r="O21" t="n">
-        <v>1456.382686782296</v>
+        <v>1204.606997971446</v>
       </c>
       <c r="P21" t="n">
-        <v>1632.851916830036</v>
+        <v>1331.579672242487</v>
       </c>
       <c r="Q21" t="n">
         <v>1709.617917594659</v>
@@ -5925,7 +5925,7 @@
         <v>1885.888822445159</v>
       </c>
       <c r="O22" t="n">
-        <v>2333.485767027292</v>
+        <v>2333.485767027291</v>
       </c>
       <c r="P22" t="n">
         <v>2702.951323608642</v>
@@ -5934,22 +5934,22 @@
         <v>2884.554422930747</v>
       </c>
       <c r="R22" t="n">
-        <v>2867.431098359184</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="S22" t="n">
-        <v>2708.890795827167</v>
+        <v>2726.01412039873</v>
       </c>
       <c r="T22" t="n">
-        <v>2468.394186772921</v>
+        <v>2485.517511344484</v>
       </c>
       <c r="U22" t="n">
-        <v>2188.246028554755</v>
+        <v>2205.369353126318</v>
       </c>
       <c r="V22" t="n">
-        <v>1906.534561162784</v>
+        <v>1923.657885734347</v>
       </c>
       <c r="W22" t="n">
-        <v>1631.682157335297</v>
+        <v>1648.80548190686</v>
       </c>
       <c r="X22" t="n">
         <v>1530.792268404165</v>
@@ -5968,7 +5968,7 @@
         <v>2487.254217339053</v>
       </c>
       <c r="C23" t="n">
-        <v>2060.353487352353</v>
+        <v>2060.353487352354</v>
       </c>
       <c r="D23" t="n">
         <v>1637.060866537354</v>
@@ -5977,7 +5977,7 @@
         <v>1211.083926685212</v>
       </c>
       <c r="F23" t="n">
-        <v>785.9597448746117</v>
+        <v>785.9597448746118</v>
       </c>
       <c r="G23" t="n">
         <v>383.1039033507153</v>
@@ -5989,28 +5989,28 @@
         <v>122.2670911671136</v>
       </c>
       <c r="J23" t="n">
-        <v>216.5227082824107</v>
+        <v>608.2519269900368</v>
       </c>
       <c r="K23" t="n">
-        <v>1116.947717067412</v>
+        <v>1508.676935775038</v>
       </c>
       <c r="L23" t="n">
-        <v>2275.978283494079</v>
+        <v>1700.153532574132</v>
       </c>
       <c r="M23" t="n">
-        <v>3228.023691097341</v>
+        <v>2330.306145469533</v>
       </c>
       <c r="N23" t="n">
-        <v>4463.662929706024</v>
+        <v>3565.945384078216</v>
       </c>
       <c r="O23" t="n">
-        <v>4671.578783049931</v>
+        <v>3773.861237422123</v>
       </c>
       <c r="P23" t="n">
-        <v>4843.423740936101</v>
+        <v>4691.18508265835</v>
       </c>
       <c r="Q23" t="n">
-        <v>4964.644076327785</v>
+        <v>4812.405418050033</v>
       </c>
       <c r="R23" t="n">
         <v>5021.27803651025</v>
@@ -6022,10 +6022,10 @@
         <v>4736.276866814004</v>
       </c>
       <c r="U23" t="n">
-        <v>4478.040615081349</v>
+        <v>4478.040615081351</v>
       </c>
       <c r="V23" t="n">
-        <v>4120.551200207598</v>
+        <v>4120.551200207599</v>
       </c>
       <c r="W23" t="n">
         <v>3724.159850507946</v>
@@ -6034,7 +6034,7 @@
         <v>3312.439851675693</v>
       </c>
       <c r="Y23" t="n">
-        <v>2907.102581630583</v>
+        <v>2907.102581630584</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>100.425560730205</v>
       </c>
       <c r="I24" t="n">
-        <v>111.1944372259722</v>
+        <v>134.651743070384</v>
       </c>
       <c r="J24" t="n">
-        <v>456.3770294033026</v>
+        <v>479.8343352477145</v>
       </c>
       <c r="K24" t="n">
-        <v>989.984584012387</v>
+        <v>884.5290837274814</v>
       </c>
       <c r="L24" t="n">
-        <v>1136.576316562894</v>
+        <v>1031.120816277989</v>
       </c>
       <c r="M24" t="n">
-        <v>1310.787445241995</v>
+        <v>1205.331944957089</v>
       </c>
       <c r="N24" t="n">
-        <v>1491.950828914648</v>
+        <v>1386.495328629743</v>
       </c>
       <c r="O24" t="n">
-        <v>1654.06921511549</v>
+        <v>1548.613714830585</v>
       </c>
       <c r="P24" t="n">
-        <v>1781.041889386531</v>
+        <v>1675.586389101626</v>
       </c>
       <c r="Q24" t="n">
-        <v>1857.807890151155</v>
+        <v>1752.352389866249</v>
       </c>
       <c r="R24" t="n">
         <v>1882.663567395379</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1015.343996030368</v>
+        <v>1032.467320601931</v>
       </c>
       <c r="C25" t="n">
-        <v>843.3714329092841</v>
+        <v>985.0454405323479</v>
       </c>
       <c r="D25" t="n">
-        <v>680.0546600360548</v>
+        <v>821.7286676591186</v>
       </c>
       <c r="E25" t="n">
-        <v>513.8464541889083</v>
+        <v>655.5204618119722</v>
       </c>
       <c r="F25" t="n">
-        <v>341.9846799634687</v>
+        <v>483.6586875865326</v>
       </c>
       <c r="G25" t="n">
-        <v>176.3930320857516</v>
+        <v>318.0670397088155</v>
       </c>
       <c r="H25" t="n">
-        <v>176.3930320857516</v>
+        <v>180.1860871063665</v>
       </c>
       <c r="I25" t="n">
         <v>100.425560730205</v>
@@ -6171,28 +6171,28 @@
         <v>2927.288895202337</v>
       </c>
       <c r="R25" t="n">
-        <v>2910.165570630774</v>
+        <v>2927.288895202337</v>
       </c>
       <c r="S25" t="n">
-        <v>2751.625268098757</v>
+        <v>2768.74859267032</v>
       </c>
       <c r="T25" t="n">
-        <v>2511.128659044511</v>
+        <v>2528.251983616074</v>
       </c>
       <c r="U25" t="n">
-        <v>2230.980500826345</v>
+        <v>2248.103825397908</v>
       </c>
       <c r="V25" t="n">
-        <v>1949.269033434374</v>
+        <v>1966.392358005937</v>
       </c>
       <c r="W25" t="n">
-        <v>1674.416629606887</v>
+        <v>1691.53995417845</v>
       </c>
       <c r="X25" t="n">
-        <v>1431.852733052692</v>
+        <v>1448.976057624255</v>
       </c>
       <c r="Y25" t="n">
-        <v>1205.509964742434</v>
+        <v>1222.633289313997</v>
       </c>
     </row>
     <row r="26">
@@ -6205,16 +6205,16 @@
         <v>2487.254217339053</v>
       </c>
       <c r="C26" t="n">
-        <v>2060.353487352353</v>
+        <v>2060.353487352354</v>
       </c>
       <c r="D26" t="n">
-        <v>1637.060866537353</v>
+        <v>1637.060866537354</v>
       </c>
       <c r="E26" t="n">
-        <v>1211.083926685211</v>
+        <v>1211.083926685212</v>
       </c>
       <c r="F26" t="n">
-        <v>785.9597448746113</v>
+        <v>785.9597448746117</v>
       </c>
       <c r="G26" t="n">
         <v>383.1039033507153</v>
@@ -6232,22 +6232,22 @@
         <v>1116.947717067412</v>
       </c>
       <c r="L26" t="n">
-        <v>2275.978283494079</v>
+        <v>1751.252532172239</v>
       </c>
       <c r="M26" t="n">
-        <v>2494.179174608164</v>
+        <v>1969.453423286325</v>
       </c>
       <c r="N26" t="n">
-        <v>3729.818413216847</v>
+        <v>2191.934776802205</v>
       </c>
       <c r="O26" t="n">
-        <v>4671.578783049931</v>
+        <v>3282.012330059389</v>
       </c>
       <c r="P26" t="n">
-        <v>4843.423740936101</v>
+        <v>4199.336175295615</v>
       </c>
       <c r="Q26" t="n">
-        <v>4964.644076327785</v>
+        <v>4812.405418050033</v>
       </c>
       <c r="R26" t="n">
         <v>5021.27803651025</v>
@@ -6256,13 +6256,13 @@
         <v>4950.709638338039</v>
       </c>
       <c r="T26" t="n">
-        <v>4736.276866814004</v>
+        <v>4736.276866814005</v>
       </c>
       <c r="U26" t="n">
-        <v>4478.040615081349</v>
+        <v>4478.04061508135</v>
       </c>
       <c r="V26" t="n">
-        <v>4120.551200207598</v>
+        <v>4120.551200207599</v>
       </c>
       <c r="W26" t="n">
         <v>3724.159850507946</v>
@@ -6271,7 +6271,7 @@
         <v>3312.439851675693</v>
       </c>
       <c r="Y26" t="n">
-        <v>2907.102581630583</v>
+        <v>2907.102581630584</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>100.425560730205</v>
       </c>
       <c r="I27" t="n">
-        <v>111.1944372259722</v>
+        <v>134.651743070384</v>
       </c>
       <c r="J27" t="n">
-        <v>164.2745369337116</v>
+        <v>479.8343352477145</v>
       </c>
       <c r="K27" t="n">
-        <v>267.6970408259299</v>
+        <v>583.2568391399328</v>
       </c>
       <c r="L27" t="n">
-        <v>1136.576316562894</v>
+        <v>729.8485716904402</v>
       </c>
       <c r="M27" t="n">
-        <v>1310.787445241995</v>
+        <v>904.0597003695407</v>
       </c>
       <c r="N27" t="n">
-        <v>1491.950828914648</v>
+        <v>1085.223084042194</v>
       </c>
       <c r="O27" t="n">
-        <v>1654.06921511549</v>
+        <v>1247.341470243036</v>
       </c>
       <c r="P27" t="n">
-        <v>1781.041889386531</v>
+        <v>1374.314144514077</v>
       </c>
       <c r="Q27" t="n">
-        <v>1857.807890151155</v>
+        <v>1752.352389866249</v>
       </c>
       <c r="R27" t="n">
         <v>1882.663567395379</v>
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2487.254217339053</v>
+        <v>2487.254217339054</v>
       </c>
       <c r="C29" t="n">
         <v>2060.353487352354</v>
@@ -6451,7 +6451,7 @@
         <v>1211.083926685212</v>
       </c>
       <c r="F29" t="n">
-        <v>785.9597448746117</v>
+        <v>785.9597448746118</v>
       </c>
       <c r="G29" t="n">
         <v>383.1039033507153</v>
@@ -6463,25 +6463,25 @@
         <v>122.2670911671136</v>
       </c>
       <c r="J29" t="n">
-        <v>216.5227082824107</v>
+        <v>608.2519269900368</v>
       </c>
       <c r="K29" t="n">
-        <v>1116.947717067412</v>
+        <v>1508.676935775038</v>
       </c>
       <c r="L29" t="n">
-        <v>2275.978283494079</v>
+        <v>1751.252532172239</v>
       </c>
       <c r="M29" t="n">
-        <v>3518.744597530365</v>
+        <v>1969.453423286325</v>
       </c>
       <c r="N29" t="n">
-        <v>3741.225951046245</v>
+        <v>2191.934776802205</v>
       </c>
       <c r="O29" t="n">
-        <v>4519.340124772179</v>
+        <v>3282.012330059389</v>
       </c>
       <c r="P29" t="n">
-        <v>4691.18508265835</v>
+        <v>4199.336175295615</v>
       </c>
       <c r="Q29" t="n">
         <v>4812.405418050033</v>
@@ -6493,22 +6493,22 @@
         <v>4950.709638338039</v>
       </c>
       <c r="T29" t="n">
-        <v>4736.276866814004</v>
+        <v>4736.276866814005</v>
       </c>
       <c r="U29" t="n">
-        <v>4478.040615081349</v>
+        <v>4478.04061508135</v>
       </c>
       <c r="V29" t="n">
-        <v>4120.551200207598</v>
+        <v>4120.551200207599</v>
       </c>
       <c r="W29" t="n">
         <v>3724.159850507946</v>
       </c>
       <c r="X29" t="n">
-        <v>3312.439851675693</v>
+        <v>3312.439851675694</v>
       </c>
       <c r="Y29" t="n">
-        <v>2907.102581630583</v>
+        <v>2907.102581630584</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>100.425560730205</v>
       </c>
       <c r="I30" t="n">
-        <v>111.1944372259722</v>
+        <v>134.651743070384</v>
       </c>
       <c r="J30" t="n">
-        <v>273.9019120568291</v>
+        <v>187.7318427781234</v>
       </c>
       <c r="K30" t="n">
-        <v>989.984584012387</v>
+        <v>291.1543466703417</v>
       </c>
       <c r="L30" t="n">
-        <v>1136.576316562894</v>
+        <v>437.7460792208491</v>
       </c>
       <c r="M30" t="n">
-        <v>1310.787445241995</v>
+        <v>611.9572078999497</v>
       </c>
       <c r="N30" t="n">
-        <v>1491.950828914648</v>
+        <v>793.120591572603</v>
       </c>
       <c r="O30" t="n">
-        <v>1654.06921511549</v>
+        <v>955.2389777734452</v>
       </c>
       <c r="P30" t="n">
-        <v>1781.041889386531</v>
+        <v>1675.586389101626</v>
       </c>
       <c r="Q30" t="n">
-        <v>1857.807890151155</v>
+        <v>1752.352389866249</v>
       </c>
       <c r="R30" t="n">
         <v>1882.663567395379</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1015.343996030368</v>
+        <v>1157.018003653432</v>
       </c>
       <c r="C31" t="n">
-        <v>843.3714329092841</v>
+        <v>985.0454405323479</v>
       </c>
       <c r="D31" t="n">
-        <v>680.0546600360548</v>
+        <v>821.7286676591186</v>
       </c>
       <c r="E31" t="n">
-        <v>513.8464541889083</v>
+        <v>655.5204618119722</v>
       </c>
       <c r="F31" t="n">
-        <v>341.9846799634687</v>
+        <v>483.6586875865326</v>
       </c>
       <c r="G31" t="n">
         <v>318.0670397088155</v>
@@ -6645,28 +6645,28 @@
         <v>2927.288895202337</v>
       </c>
       <c r="R31" t="n">
-        <v>2910.165570630774</v>
+        <v>2927.288895202337</v>
       </c>
       <c r="S31" t="n">
-        <v>2751.625268098757</v>
+        <v>2893.299275721821</v>
       </c>
       <c r="T31" t="n">
-        <v>2511.128659044511</v>
+        <v>2652.802666667574</v>
       </c>
       <c r="U31" t="n">
-        <v>2230.980500826345</v>
+        <v>2372.654508449408</v>
       </c>
       <c r="V31" t="n">
-        <v>1949.269033434374</v>
+        <v>2090.943041057437</v>
       </c>
       <c r="W31" t="n">
-        <v>1674.416629606887</v>
+        <v>1816.09063722995</v>
       </c>
       <c r="X31" t="n">
-        <v>1431.852733052692</v>
+        <v>1573.526740675755</v>
       </c>
       <c r="Y31" t="n">
-        <v>1205.509964742434</v>
+        <v>1347.183972365498</v>
       </c>
     </row>
     <row r="32">
@@ -6679,16 +6679,16 @@
         <v>2487.254217339053</v>
       </c>
       <c r="C32" t="n">
-        <v>2060.353487352354</v>
+        <v>2060.353487352353</v>
       </c>
       <c r="D32" t="n">
-        <v>1637.060866537354</v>
+        <v>1637.060866537353</v>
       </c>
       <c r="E32" t="n">
-        <v>1211.083926685212</v>
+        <v>1211.083926685211</v>
       </c>
       <c r="F32" t="n">
-        <v>785.9597448746118</v>
+        <v>785.9597448746113</v>
       </c>
       <c r="G32" t="n">
         <v>383.1039033507153</v>
@@ -6700,22 +6700,22 @@
         <v>122.2670911671136</v>
       </c>
       <c r="J32" t="n">
-        <v>216.5227082824107</v>
+        <v>608.2519269900368</v>
       </c>
       <c r="K32" t="n">
-        <v>366.0324543050519</v>
+        <v>1149.693214621475</v>
       </c>
       <c r="L32" t="n">
-        <v>1525.063020731719</v>
+        <v>1341.169811420569</v>
       </c>
       <c r="M32" t="n">
-        <v>2767.829334768006</v>
+        <v>2583.936125456855</v>
       </c>
       <c r="N32" t="n">
-        <v>3074.096476715481</v>
+        <v>3819.575364065538</v>
       </c>
       <c r="O32" t="n">
-        <v>3282.012330059389</v>
+        <v>4027.491217409445</v>
       </c>
       <c r="P32" t="n">
         <v>4199.336175295615</v>
@@ -6727,25 +6727,25 @@
         <v>5021.27803651025</v>
       </c>
       <c r="S32" t="n">
-        <v>4950.709638338039</v>
+        <v>4950.70963833804</v>
       </c>
       <c r="T32" t="n">
-        <v>4736.276866814004</v>
+        <v>4736.276866814005</v>
       </c>
       <c r="U32" t="n">
-        <v>4478.040615081351</v>
+        <v>4478.040615081349</v>
       </c>
       <c r="V32" t="n">
-        <v>4120.551200207599</v>
+        <v>4120.551200207598</v>
       </c>
       <c r="W32" t="n">
-        <v>3724.159850507946</v>
+        <v>3724.159850507945</v>
       </c>
       <c r="X32" t="n">
         <v>3312.439851675693</v>
       </c>
       <c r="Y32" t="n">
-        <v>2907.102581630584</v>
+        <v>2907.102581630583</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>100.425560730205</v>
       </c>
       <c r="I33" t="n">
-        <v>111.1944372259722</v>
+        <v>134.651743070384</v>
       </c>
       <c r="J33" t="n">
-        <v>164.2745369337116</v>
+        <v>479.8343352477145</v>
       </c>
       <c r="K33" t="n">
-        <v>267.6970408259299</v>
+        <v>884.5290837274814</v>
       </c>
       <c r="L33" t="n">
-        <v>414.2887733764372</v>
+        <v>1031.120816277989</v>
       </c>
       <c r="M33" t="n">
-        <v>588.4999020555379</v>
+        <v>1205.331944957089</v>
       </c>
       <c r="N33" t="n">
-        <v>769.6632857281911</v>
+        <v>1386.495328629743</v>
       </c>
       <c r="O33" t="n">
-        <v>1654.06921511549</v>
+        <v>1548.613714830585</v>
       </c>
       <c r="P33" t="n">
-        <v>1781.041889386531</v>
+        <v>1675.586389101626</v>
       </c>
       <c r="Q33" t="n">
-        <v>1857.807890151155</v>
+        <v>1752.352389866249</v>
       </c>
       <c r="R33" t="n">
         <v>1882.663567395379</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1157.018003653432</v>
+        <v>1032.467320601931</v>
       </c>
       <c r="C34" t="n">
-        <v>985.0454405323479</v>
+        <v>860.4947574808471</v>
       </c>
       <c r="D34" t="n">
-        <v>821.7286676591186</v>
+        <v>697.1779846076178</v>
       </c>
       <c r="E34" t="n">
         <v>655.5204618119722</v>
@@ -6882,28 +6882,28 @@
         <v>2927.288895202337</v>
       </c>
       <c r="R34" t="n">
-        <v>2910.165570630774</v>
+        <v>2927.288895202337</v>
       </c>
       <c r="S34" t="n">
-        <v>2751.625268098757</v>
+        <v>2768.74859267032</v>
       </c>
       <c r="T34" t="n">
-        <v>2511.128659044511</v>
+        <v>2528.251983616074</v>
       </c>
       <c r="U34" t="n">
-        <v>2230.980500826345</v>
+        <v>2248.103825397908</v>
       </c>
       <c r="V34" t="n">
-        <v>1949.269033434374</v>
+        <v>1966.392358005937</v>
       </c>
       <c r="W34" t="n">
-        <v>1674.416629606887</v>
+        <v>1691.53995417845</v>
       </c>
       <c r="X34" t="n">
-        <v>1573.526740675755</v>
+        <v>1448.976057624255</v>
       </c>
       <c r="Y34" t="n">
-        <v>1347.183972365498</v>
+        <v>1222.633289313997</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2161.841402446953</v>
+        <v>1758.985560923057</v>
       </c>
       <c r="C35" t="n">
-        <v>1734.940672460253</v>
+        <v>1332.084830936357</v>
       </c>
       <c r="D35" t="n">
-        <v>1311.648051645254</v>
+        <v>908.7922101213571</v>
       </c>
       <c r="E35" t="n">
-        <v>885.6711117931112</v>
+        <v>482.8152702692147</v>
       </c>
       <c r="F35" t="n">
-        <v>460.5469299825114</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="G35" t="n">
         <v>57.69108845861495</v>
@@ -6937,28 +6937,28 @@
         <v>79.53261889552356</v>
       </c>
       <c r="J35" t="n">
-        <v>173.7882360108207</v>
+        <v>565.5174547184469</v>
       </c>
       <c r="K35" t="n">
-        <v>323.2979820334618</v>
+        <v>715.027200741088</v>
       </c>
       <c r="L35" t="n">
-        <v>514.7745788325553</v>
+        <v>906.5037975401815</v>
       </c>
       <c r="M35" t="n">
-        <v>1107.000730119709</v>
+        <v>1124.704688654267</v>
       </c>
       <c r="N35" t="n">
-        <v>1820.927949795069</v>
+        <v>1347.186042170147</v>
       </c>
       <c r="O35" t="n">
-        <v>2534.855169470429</v>
+        <v>1555.101895514055</v>
       </c>
       <c r="P35" t="n">
-        <v>2706.700127356599</v>
+        <v>2062.612561716113</v>
       </c>
       <c r="Q35" t="n">
-        <v>2827.920462748282</v>
+        <v>2675.681804470531</v>
       </c>
       <c r="R35" t="n">
         <v>2884.554422930747</v>
@@ -6967,22 +6967,22 @@
         <v>2884.554422930747</v>
       </c>
       <c r="T35" t="n">
-        <v>2884.554422930747</v>
+        <v>2670.121651406713</v>
       </c>
       <c r="U35" t="n">
-        <v>2884.554422930747</v>
+        <v>2670.121651406713</v>
       </c>
       <c r="V35" t="n">
-        <v>2527.065008056997</v>
+        <v>2670.121651406713</v>
       </c>
       <c r="W35" t="n">
-        <v>2527.065008056997</v>
+        <v>2584.171195259697</v>
       </c>
       <c r="X35" t="n">
-        <v>2161.841402446953</v>
+        <v>2584.171195259697</v>
       </c>
       <c r="Y35" t="n">
-        <v>2161.841402446953</v>
+        <v>2178.833925214587</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>68.45996495438216</v>
       </c>
       <c r="J36" t="n">
-        <v>121.5400646621215</v>
+        <v>413.6425571317126</v>
       </c>
       <c r="K36" t="n">
-        <v>254.8400660515722</v>
+        <v>517.0650610239309</v>
       </c>
       <c r="L36" t="n">
-        <v>401.4317986020796</v>
+        <v>663.6567935744382</v>
       </c>
       <c r="M36" t="n">
-        <v>575.6429272811802</v>
+        <v>837.8679222535388</v>
       </c>
       <c r="N36" t="n">
-        <v>756.8063109538334</v>
+        <v>1019.031305926192</v>
       </c>
       <c r="O36" t="n">
-        <v>918.9246971546756</v>
+        <v>1181.149692127034</v>
       </c>
       <c r="P36" t="n">
-        <v>1632.851916830036</v>
+        <v>1308.122366398075</v>
       </c>
       <c r="Q36" t="n">
-        <v>1709.617917594659</v>
+        <v>1815.073417879565</v>
       </c>
       <c r="R36" t="n">
         <v>1839.929095123789</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>976.4025787793929</v>
+        <v>1114.283531381842</v>
       </c>
       <c r="C37" t="n">
-        <v>804.4300156583089</v>
+        <v>942.3109682607579</v>
       </c>
       <c r="D37" t="n">
-        <v>641.1132427850796</v>
+        <v>778.9941953875286</v>
       </c>
       <c r="E37" t="n">
-        <v>474.9050369379331</v>
+        <v>612.7859895403822</v>
       </c>
       <c r="F37" t="n">
-        <v>303.0432627124936</v>
+        <v>440.9242153149426</v>
       </c>
       <c r="G37" t="n">
-        <v>137.4516148347764</v>
+        <v>275.3325674372254</v>
       </c>
       <c r="H37" t="n">
         <v>137.4516148347764</v>
@@ -7098,10 +7098,10 @@
         <v>161.2846086864215</v>
       </c>
       <c r="K37" t="n">
-        <v>463.5722733880318</v>
+        <v>463.5722733880319</v>
       </c>
       <c r="L37" t="n">
-        <v>915.2083926800955</v>
+        <v>915.2083926800956</v>
       </c>
       <c r="M37" t="n">
         <v>1408.610993194761</v>
@@ -7110,7 +7110,7 @@
         <v>1885.888822445159</v>
       </c>
       <c r="O37" t="n">
-        <v>2333.485767027292</v>
+        <v>2333.485767027291</v>
       </c>
       <c r="P37" t="n">
         <v>2702.951323608642</v>
@@ -7119,28 +7119,28 @@
         <v>2884.554422930747</v>
       </c>
       <c r="R37" t="n">
-        <v>2867.431098359184</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="S37" t="n">
-        <v>2708.890795827167</v>
+        <v>2726.01412039873</v>
       </c>
       <c r="T37" t="n">
-        <v>2468.394186772921</v>
+        <v>2485.517511344484</v>
       </c>
       <c r="U37" t="n">
-        <v>2188.246028554755</v>
+        <v>2205.369353126318</v>
       </c>
       <c r="V37" t="n">
-        <v>1910.327616183398</v>
+        <v>1923.657885734347</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.475212355911</v>
+        <v>1648.80548190686</v>
       </c>
       <c r="X37" t="n">
-        <v>1392.911315801716</v>
+        <v>1530.792268404165</v>
       </c>
       <c r="Y37" t="n">
-        <v>1166.568547491459</v>
+        <v>1304.449500093908</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2017.619015080764</v>
+        <v>1758.985560923057</v>
       </c>
       <c r="C38" t="n">
-        <v>2017.619015080764</v>
+        <v>1332.084830936357</v>
       </c>
       <c r="D38" t="n">
-        <v>1594.326394265764</v>
+        <v>908.7922101213571</v>
       </c>
       <c r="E38" t="n">
-        <v>1168.349454413622</v>
+        <v>482.8152702692147</v>
       </c>
       <c r="F38" t="n">
-        <v>743.2252726030217</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="G38" t="n">
-        <v>340.3694310791253</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="H38" t="n">
         <v>57.69108845861495</v>
@@ -7174,28 +7174,28 @@
         <v>79.53261889552356</v>
       </c>
       <c r="J38" t="n">
-        <v>565.5174547184469</v>
+        <v>374.8551189595294</v>
       </c>
       <c r="K38" t="n">
-        <v>715.027200741088</v>
+        <v>524.3648649821705</v>
       </c>
       <c r="L38" t="n">
-        <v>906.5037975401815</v>
+        <v>1238.29208465753</v>
       </c>
       <c r="M38" t="n">
-        <v>1124.704688654267</v>
+        <v>1952.21930433289</v>
       </c>
       <c r="N38" t="n">
-        <v>1347.186042170147</v>
+        <v>2174.700657848771</v>
       </c>
       <c r="O38" t="n">
-        <v>1555.101895514055</v>
+        <v>2382.616511192678</v>
       </c>
       <c r="P38" t="n">
-        <v>2269.029115189414</v>
+        <v>2554.461469078848</v>
       </c>
       <c r="Q38" t="n">
-        <v>2827.920462748282</v>
+        <v>2675.681804470531</v>
       </c>
       <c r="R38" t="n">
         <v>2884.554422930747</v>
@@ -7204,22 +7204,22 @@
         <v>2813.986024758537</v>
       </c>
       <c r="T38" t="n">
-        <v>2599.553253234503</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="U38" t="n">
-        <v>2599.553253234503</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="V38" t="n">
-        <v>2599.553253234503</v>
+        <v>2590.55392404684</v>
       </c>
       <c r="W38" t="n">
-        <v>2599.553253234503</v>
+        <v>2590.55392404684</v>
       </c>
       <c r="X38" t="n">
-        <v>2187.83325440225</v>
+        <v>2178.833925214587</v>
       </c>
       <c r="Y38" t="n">
-        <v>2017.619015080764</v>
+        <v>2178.833925214587</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>57.69108845861495</v>
       </c>
       <c r="I39" t="n">
-        <v>68.45996495438216</v>
+        <v>91.91727079879399</v>
       </c>
       <c r="J39" t="n">
-        <v>121.5400646621215</v>
+        <v>437.0998629761244</v>
       </c>
       <c r="K39" t="n">
-        <v>224.9625685543398</v>
+        <v>841.7946114558912</v>
       </c>
       <c r="L39" t="n">
-        <v>401.4317986020796</v>
+        <v>988.3863440063985</v>
       </c>
       <c r="M39" t="n">
-        <v>575.6429272811802</v>
+        <v>1162.597472685499</v>
       </c>
       <c r="N39" t="n">
-        <v>756.8063109538334</v>
+        <v>1343.760856358152</v>
       </c>
       <c r="O39" t="n">
-        <v>918.9246971546756</v>
+        <v>1505.879242558995</v>
       </c>
       <c r="P39" t="n">
         <v>1632.851916830036</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>972.6095237587783</v>
+        <v>989.7328483303413</v>
       </c>
       <c r="C40" t="n">
-        <v>800.6369606376943</v>
+        <v>817.7602852092573</v>
       </c>
       <c r="D40" t="n">
-        <v>637.320187764465</v>
+        <v>654.443512336028</v>
       </c>
       <c r="E40" t="n">
-        <v>471.1119819173185</v>
+        <v>488.2353064888815</v>
       </c>
       <c r="F40" t="n">
-        <v>299.2502076918789</v>
+        <v>316.3735322634419</v>
       </c>
       <c r="G40" t="n">
-        <v>133.6585598141618</v>
+        <v>150.7818843857248</v>
       </c>
       <c r="H40" t="n">
-        <v>133.6585598141618</v>
+        <v>137.4516148347764</v>
       </c>
       <c r="I40" t="n">
         <v>57.69108845861495</v>
@@ -7335,10 +7335,10 @@
         <v>161.2846086864215</v>
       </c>
       <c r="K40" t="n">
-        <v>463.572273388032</v>
+        <v>463.5722733880319</v>
       </c>
       <c r="L40" t="n">
-        <v>915.2083926800958</v>
+        <v>915.2083926800956</v>
       </c>
       <c r="M40" t="n">
         <v>1408.610993194761</v>
@@ -7356,28 +7356,28 @@
         <v>2884.554422930747</v>
       </c>
       <c r="R40" t="n">
-        <v>2867.431098359184</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="S40" t="n">
-        <v>2708.890795827167</v>
+        <v>2726.01412039873</v>
       </c>
       <c r="T40" t="n">
-        <v>2468.394186772921</v>
+        <v>2485.517511344484</v>
       </c>
       <c r="U40" t="n">
-        <v>2188.246028554755</v>
+        <v>2205.369353126318</v>
       </c>
       <c r="V40" t="n">
-        <v>1906.534561162784</v>
+        <v>1923.657885734347</v>
       </c>
       <c r="W40" t="n">
-        <v>1631.682157335297</v>
+        <v>1648.80548190686</v>
       </c>
       <c r="X40" t="n">
-        <v>1389.118260781102</v>
+        <v>1406.241585352665</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.775492470844</v>
+        <v>1179.898817042407</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2018.542805215321</v>
+        <v>1591.642075228621</v>
       </c>
       <c r="C41" t="n">
         <v>1591.642075228621</v>
@@ -7405,7 +7405,7 @@
         <v>340.3694310791253</v>
       </c>
       <c r="H41" t="n">
-        <v>57.69108845861496</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I41" t="n">
         <v>79.53261889552356</v>
@@ -7414,7 +7414,7 @@
         <v>173.7882360108207</v>
       </c>
       <c r="K41" t="n">
-        <v>887.7154556861808</v>
+        <v>887.7154556861807</v>
       </c>
       <c r="L41" t="n">
         <v>1079.192052485274</v>
@@ -7426,37 +7426,37 @@
         <v>1519.87429711524</v>
       </c>
       <c r="O41" t="n">
-        <v>1727.790150459147</v>
+        <v>1890.767603829943</v>
       </c>
       <c r="P41" t="n">
-        <v>2441.717370134507</v>
+        <v>2062.612561716113</v>
       </c>
       <c r="Q41" t="n">
-        <v>2675.681804470532</v>
+        <v>2675.681804470531</v>
       </c>
       <c r="R41" t="n">
-        <v>2884.554422930748</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="S41" t="n">
-        <v>2884.554422930748</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="T41" t="n">
-        <v>2884.554422930748</v>
+        <v>2599.553253234503</v>
       </c>
       <c r="U41" t="n">
-        <v>2884.554422930748</v>
+        <v>2599.553253234503</v>
       </c>
       <c r="V41" t="n">
-        <v>2527.065008056998</v>
+        <v>2599.553253234503</v>
       </c>
       <c r="W41" t="n">
-        <v>2130.673658357345</v>
+        <v>2599.553253234503</v>
       </c>
       <c r="X41" t="n">
-        <v>2130.673658357345</v>
+        <v>2187.83325440225</v>
       </c>
       <c r="Y41" t="n">
-        <v>2018.542805215321</v>
+        <v>2011.490439520151</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>103.40274270939</v>
       </c>
       <c r="H42" t="n">
-        <v>57.69108845861496</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I42" t="n">
-        <v>68.45996495438216</v>
+        <v>91.91727079879399</v>
       </c>
       <c r="J42" t="n">
-        <v>413.6425571317126</v>
+        <v>437.0998629761244</v>
       </c>
       <c r="K42" t="n">
-        <v>517.0650610239309</v>
+        <v>540.5223668683427</v>
       </c>
       <c r="L42" t="n">
-        <v>663.6567935744382</v>
+        <v>687.1140994188501</v>
       </c>
       <c r="M42" t="n">
-        <v>837.8679222535388</v>
+        <v>861.3252280979507</v>
       </c>
       <c r="N42" t="n">
-        <v>1019.031305926192</v>
+        <v>1042.488611770604</v>
       </c>
       <c r="O42" t="n">
-        <v>1181.149692127034</v>
+        <v>1204.606997971446</v>
       </c>
       <c r="P42" t="n">
-        <v>1308.122366398075</v>
+        <v>1331.579672242487</v>
       </c>
       <c r="Q42" t="n">
         <v>1709.617917594659</v>
@@ -7566,7 +7566,7 @@
         <v>137.4516148347764</v>
       </c>
       <c r="I43" t="n">
-        <v>57.69108845861496</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="J43" t="n">
         <v>161.2846086864215</v>
@@ -7587,34 +7587,34 @@
         <v>2333.485767027292</v>
       </c>
       <c r="P43" t="n">
-        <v>2702.951323608643</v>
+        <v>2702.951323608642</v>
       </c>
       <c r="Q43" t="n">
-        <v>2884.554422930748</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="R43" t="n">
-        <v>2867.431098359185</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="S43" t="n">
-        <v>2850.56480345023</v>
+        <v>2726.01412039873</v>
       </c>
       <c r="T43" t="n">
-        <v>2610.068194395983</v>
+        <v>2485.517511344484</v>
       </c>
       <c r="U43" t="n">
-        <v>2329.920036177818</v>
+        <v>2205.369353126318</v>
       </c>
       <c r="V43" t="n">
-        <v>2048.208568785847</v>
+        <v>1923.657885734347</v>
       </c>
       <c r="W43" t="n">
-        <v>1773.35616495836</v>
+        <v>1648.80548190686</v>
       </c>
       <c r="X43" t="n">
-        <v>1530.792268404165</v>
+        <v>1406.241585352665</v>
       </c>
       <c r="Y43" t="n">
-        <v>1304.449500093908</v>
+        <v>1179.898817042407</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1797.82463348974</v>
+        <v>1982.417661634755</v>
       </c>
       <c r="C44" t="n">
-        <v>1370.92390350304</v>
+        <v>1555.516931648055</v>
       </c>
       <c r="D44" t="n">
-        <v>947.6312826880403</v>
+        <v>1132.224310833055</v>
       </c>
       <c r="E44" t="n">
-        <v>885.6711117931112</v>
+        <v>706.2473709809127</v>
       </c>
       <c r="F44" t="n">
-        <v>460.5469299825114</v>
+        <v>281.1231891703129</v>
       </c>
       <c r="G44" t="n">
-        <v>57.69108845861496</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="H44" t="n">
-        <v>57.69108845861496</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I44" t="n">
         <v>79.53261889552356</v>
       </c>
       <c r="J44" t="n">
-        <v>173.7882360108207</v>
+        <v>565.5174547184469</v>
       </c>
       <c r="K44" t="n">
-        <v>887.7154556861808</v>
+        <v>715.027200741088</v>
       </c>
       <c r="L44" t="n">
-        <v>1079.192052485274</v>
+        <v>906.5037975401815</v>
       </c>
       <c r="M44" t="n">
-        <v>1612.609055247906</v>
+        <v>1124.704688654267</v>
       </c>
       <c r="N44" t="n">
-        <v>1835.090408763787</v>
+        <v>1347.186042170147</v>
       </c>
       <c r="O44" t="n">
-        <v>2043.006262107694</v>
+        <v>1890.767603829943</v>
       </c>
       <c r="P44" t="n">
-        <v>2214.851219993864</v>
+        <v>2062.612561716113</v>
       </c>
       <c r="Q44" t="n">
-        <v>2827.920462748283</v>
+        <v>2675.681804470531</v>
       </c>
       <c r="R44" t="n">
-        <v>2884.554422930748</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="S44" t="n">
         <v>2813.986024758537</v>
       </c>
       <c r="T44" t="n">
-        <v>2599.553253234503</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="U44" t="n">
-        <v>2599.553253234503</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="V44" t="n">
-        <v>2599.553253234503</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="W44" t="n">
-        <v>2203.161903534849</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="X44" t="n">
-        <v>2203.161903534849</v>
+        <v>2402.266025926285</v>
       </c>
       <c r="Y44" t="n">
-        <v>1797.82463348974</v>
+        <v>2402.266025926285</v>
       </c>
     </row>
     <row r="45">
@@ -7721,31 +7721,31 @@
         <v>103.40274270939</v>
       </c>
       <c r="H45" t="n">
-        <v>57.69108845861496</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I45" t="n">
-        <v>91.91727079879401</v>
+        <v>68.45996495438216</v>
       </c>
       <c r="J45" t="n">
-        <v>144.9973705065334</v>
+        <v>413.6425571317126</v>
       </c>
       <c r="K45" t="n">
-        <v>355.1295666870233</v>
+        <v>517.0650610239309</v>
       </c>
       <c r="L45" t="n">
-        <v>501.7212992375307</v>
+        <v>663.6567935744382</v>
       </c>
       <c r="M45" t="n">
-        <v>675.9324279166312</v>
+        <v>837.8679222535388</v>
       </c>
       <c r="N45" t="n">
-        <v>857.0958115892845</v>
+        <v>1019.031305926192</v>
       </c>
       <c r="O45" t="n">
-        <v>1019.214197790127</v>
+        <v>1181.149692127034</v>
       </c>
       <c r="P45" t="n">
-        <v>1146.186872061168</v>
+        <v>1308.122366398075</v>
       </c>
       <c r="Q45" t="n">
         <v>1709.617917594659</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1114.283531381842</v>
+        <v>972.6095237587783</v>
       </c>
       <c r="C46" t="n">
-        <v>942.3109682607579</v>
+        <v>800.6369606376943</v>
       </c>
       <c r="D46" t="n">
-        <v>778.9941953875286</v>
+        <v>637.320187764465</v>
       </c>
       <c r="E46" t="n">
         <v>612.7859895403822</v>
@@ -7803,16 +7803,16 @@
         <v>137.4516148347764</v>
       </c>
       <c r="I46" t="n">
-        <v>57.69108845861496</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="J46" t="n">
-        <v>161.2846086864217</v>
+        <v>161.2846086864215</v>
       </c>
       <c r="K46" t="n">
-        <v>463.572273388032</v>
+        <v>463.5722733880317</v>
       </c>
       <c r="L46" t="n">
-        <v>915.2083926800955</v>
+        <v>915.2083926800954</v>
       </c>
       <c r="M46" t="n">
         <v>1408.610993194761</v>
@@ -7824,34 +7824,34 @@
         <v>2333.485767027292</v>
       </c>
       <c r="P46" t="n">
-        <v>2702.951323608643</v>
+        <v>2702.951323608642</v>
       </c>
       <c r="Q46" t="n">
-        <v>2884.554422930748</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="R46" t="n">
-        <v>2867.431098359185</v>
+        <v>2867.431098359184</v>
       </c>
       <c r="S46" t="n">
-        <v>2708.890795827168</v>
+        <v>2708.890795827167</v>
       </c>
       <c r="T46" t="n">
-        <v>2610.068194395983</v>
+        <v>2468.394186772921</v>
       </c>
       <c r="U46" t="n">
-        <v>2329.920036177818</v>
+        <v>2188.246028554755</v>
       </c>
       <c r="V46" t="n">
-        <v>2048.208568785847</v>
+        <v>1906.534561162784</v>
       </c>
       <c r="W46" t="n">
-        <v>1773.35616495836</v>
+        <v>1631.682157335297</v>
       </c>
       <c r="X46" t="n">
-        <v>1530.792268404165</v>
+        <v>1389.118260781102</v>
       </c>
       <c r="Y46" t="n">
-        <v>1304.449500093908</v>
+        <v>1162.775492470844</v>
       </c>
     </row>
   </sheetData>
@@ -7978,16 +7978,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.53626961840621</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>66.42835256544261</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>65.54757303225151</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
@@ -7996,13 +7996,13 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>65.69167194305098</v>
+        <v>64.55565941243201</v>
       </c>
       <c r="Q2" t="n">
-        <v>64.24098473741773</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>62.01294749699718</v>
+        <v>63.14896002761616</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>41.85766985784532</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>50.63139684704925</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
         <v>51.21309064514766</v>
       </c>
       <c r="N3" t="n">
-        <v>49.45933834636135</v>
+        <v>48.32332581574237</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>51.28819985504191</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>49.88715133764835</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8139,13 +8139,13 @@
         <v>48.75306611672156</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>47.9449520549127</v>
       </c>
       <c r="L4" t="n">
         <v>50.03507002852091</v>
       </c>
       <c r="M4" t="n">
-        <v>50.69175002430551</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N4" t="n">
         <v>20.74890097560039</v>
@@ -8154,10 +8154,10 @@
         <v>22.49918749842445</v>
       </c>
       <c r="P4" t="n">
-        <v>49.36109826018719</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>52.73587289760464</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>57.53626961840621</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>66.42835256544261</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>65.39593296726571</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>64.37125695822481</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>65.69167194305098</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>64.24098473741773</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>62.01294749699718</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,25 +8300,25 @@
         <v>50.51554396615302</v>
       </c>
       <c r="L6" t="n">
-        <v>50.63139684704925</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>42.55521653683996</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>42.6303257467342</v>
       </c>
       <c r="P6" t="n">
-        <v>49.88715133764835</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>50.86334842179818</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>51.78922952696383</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>48.75306611672156</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K7" t="n">
         <v>49.08096458553168</v>
@@ -8385,16 +8385,16 @@
         <v>49.55573749368652</v>
       </c>
       <c r="N7" t="n">
-        <v>20.74890097560039</v>
+        <v>48.86521110842008</v>
       </c>
       <c r="O7" t="n">
-        <v>50.61549763124414</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P7" t="n">
         <v>22.38080065798648</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>52.73587289760464</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,28 +8455,28 @@
         <v>57.53626961840621</v>
       </c>
       <c r="K8" t="n">
-        <v>62.74489839701005</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>65.54757303225151</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>65.50726948884378</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>65.69167194305098</v>
       </c>
       <c r="Q8" t="n">
-        <v>64.24098473741773</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>62.01294749699718</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,28 +8531,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>48.72742446615302</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>50.51554396615302</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>50.63139684704925</v>
       </c>
       <c r="M9" t="n">
-        <v>51.21309064514766</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>49.45933834636135</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>51.28819985504191</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>48.75113880702937</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>49.72733589117921</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8610,19 +8610,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>47.61705358610257</v>
       </c>
       <c r="K10" t="n">
-        <v>47.9449520549127</v>
+        <v>49.08096458553168</v>
       </c>
       <c r="L10" t="n">
-        <v>50.03507002852091</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M10" t="n">
         <v>22.57543989148582</v>
       </c>
       <c r="N10" t="n">
-        <v>48.86521110842008</v>
+        <v>20.74890097560039</v>
       </c>
       <c r="O10" t="n">
         <v>22.49918749842445</v>
@@ -8631,7 +8631,7 @@
         <v>50.49711079080617</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>52.73587289760464</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>570.1186602552716</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>314.4835257070782</v>
+        <v>527.7279018952188</v>
       </c>
       <c r="M11" t="n">
-        <v>500.7336652134084</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>308.1454472751075</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>65.68000952225606</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.3826600752705</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>304.3153985732814</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8853,7 +8853,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>380.1908016072373</v>
+        <v>380.1908016072372</v>
       </c>
       <c r="M13" t="n">
         <v>417.7126065281028</v>
@@ -8865,7 +8865,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>315.915358154856</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
         <v>152.9025226039384</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>207.0144486335835</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>527.7279018952187</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>339.0562710261495</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9005,10 +9005,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>148.5064685530584</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>6.485042073556144</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.3826600752705</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>592.8833791962818</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>527.7279018952188</v>
       </c>
       <c r="M17" t="n">
-        <v>500.7336652134084</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9181,10 +9181,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>360.7908711363622</v>
       </c>
       <c r="Q17" t="n">
-        <v>356.8742840671306</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>54.20065258674755</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>304.3153985732813</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>545.1677686830903</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>570.1186602552716</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>339.0562710261494</v>
       </c>
       <c r="N20" t="n">
-        <v>318.4001127763092</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>573.0661486109623</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>49.99652098656441</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>304.3153985732814</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>741.2570873628044</v>
+        <v>416.1128502841572</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9655,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>434.5303542594608</v>
+        <v>304.3153985732815</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,25 +9880,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>447.3012306118523</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>741.2570873628049</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>729.5833769560173</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>304.3153985732811</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>51.61515110919956</v>
       </c>
       <c r="M29" t="n">
-        <v>1034.914568608284</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>575.9578993757847</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>110.7347223465834</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>618.848654609434</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>599.3684212698378</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>395.890446069492</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1034.914568608284</v>
       </c>
       <c r="N32" t="n">
-        <v>84.63210952686435</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>304.3153985732815</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>729.5833769560173</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10594,22 +10594,22 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>377.8032931041089</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>496.4099658176564</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>511.1225922539928</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>339.0562710261495</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>30.17929040124484</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>592.8833791962818</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>434.5303542594606</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>203.0978615643522</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>527.7279018952187</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>500.7336652134084</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10840,13 +10840,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>547.5578401911007</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>442.0919314820044</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>304.3153985732813</v>
       </c>
       <c r="L39" t="n">
-        <v>30.17929040124483</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>592.8833791962818</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>164.6236902735305</v>
       </c>
       <c r="P41" t="n">
-        <v>547.5578401911009</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>113.8829282266072</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>295.0530226965566</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>328.0096469009699</v>
+        <v>304.3153985732814</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11232,7 +11232,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>381.5174992961652</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
         <v>315.9153581548562</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>570.1186602552716</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>318.4001127763095</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>339.0562710261495</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>107.7875679679511</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>328.0096469009699</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -11457,7 +11457,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464867</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>316.3551469157612</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>279.8515591943052</v>
@@ -23311,19 +23311,19 @@
         <v>69.86271419048811</v>
       </c>
       <c r="T11" t="n">
-        <v>212.2884438087945</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>86.78192082234429</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>44.34225510858572</v>
+        <v>123.3051762209856</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>78.96292111239987</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23497,10 +23497,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.8272831086575</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>279.8515591943052</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>129.1681461475121</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>12.93929565244815</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>140.2572675468328</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>140.257267546833</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>409.0001336532276</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>398.8272831086575</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.2884438087945</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>299.9416854010968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>140.257267546833</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>123.3051762209856</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>73.6714152609805</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>333.8793324836871</v>
       </c>
       <c r="H20" t="n">
         <v>279.8515591943052</v>
@@ -24022,13 +24022,13 @@
         <v>69.86271419048811</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.2884438087945</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>140.257267546833</v>
+        <v>123.3051762209856</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>123.3051762209858</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>136.5021430764245</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>3.755124470408774</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>140.2572675468332</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>123.3051762209856</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>123.3051762209858</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>140.2572675468332</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.8272831086575</v>
       </c>
       <c r="H35" t="n">
         <v>279.8515591943052</v>
@@ -25207,22 +25207,22 @@
         <v>69.86271419048811</v>
       </c>
       <c r="T35" t="n">
-        <v>212.2884438087945</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>255.6538892153287</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>307.3364846171105</v>
       </c>
       <c r="X35" t="n">
-        <v>46.03142928998739</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>136.5021430764245</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>3.755124470408305</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>123.3051762209856</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.8272831086575</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>279.8515591943052</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.2884438087945</v>
       </c>
       <c r="U38" t="n">
         <v>255.6538892153287</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>132.7167410204322</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>232.7718004163872</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>136.5021430764245</v>
+        <v>123.3051762209856</v>
       </c>
       <c r="I40" t="n">
-        <v>3.755124470408489</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>69.86271419048811</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>212.2884438087945</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>255.6538892153287</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>290.2743527340552</v>
+        <v>226.7045106113808</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>123.3051762209855</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S43" t="n">
-        <v>140.2572675468316</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>360.3766012676412</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>177.6295034040765</v>
       </c>
       <c r="H44" t="n">
         <v>279.8515591943052</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.2884438087945</v>
       </c>
       <c r="U44" t="n">
         <v>255.6538892153287</v>
@@ -25927,13 +25927,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>140.257267546833</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>140.2572675468317</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>426314.1913267781</v>
+        <v>426314.191326778</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>426314.191326778</v>
+        <v>426314.1913267781</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>426314.191326778</v>
+        <v>426314.1913267781</v>
       </c>
     </row>
     <row r="9">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>524198.4012100468</v>
+      </c>
+      <c r="C2" t="n">
         <v>524198.4012100471</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>524198.401210047</v>
       </c>
-      <c r="D2" t="n">
-        <v>524198.4012100469</v>
-      </c>
       <c r="E2" t="n">
+        <v>372655.5959685695</v>
+      </c>
+      <c r="F2" t="n">
         <v>372655.5959685693</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>372655.5959685695</v>
       </c>
-      <c r="G2" t="n">
-        <v>372655.5959685693</v>
-      </c>
       <c r="H2" t="n">
-        <v>372655.5959685693</v>
+        <v>372655.5959685695</v>
       </c>
       <c r="I2" t="n">
-        <v>521168.8442310353</v>
+        <v>521168.8442310356</v>
       </c>
       <c r="J2" t="n">
-        <v>521168.8442310353</v>
+        <v>521168.8442310349</v>
       </c>
       <c r="K2" t="n">
-        <v>521168.8442310353</v>
+        <v>521168.844231035</v>
       </c>
       <c r="L2" t="n">
-        <v>521168.8442310354</v>
+        <v>521168.8442310355</v>
       </c>
       <c r="M2" t="n">
         <v>372655.5959685693</v>
@@ -26352,10 +26352,10 @@
         <v>372655.5959685695</v>
       </c>
       <c r="O2" t="n">
-        <v>372655.5959685692</v>
+        <v>372655.5959685693</v>
       </c>
       <c r="P2" t="n">
-        <v>372655.5959685693</v>
+        <v>372655.5959685695</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640955</v>
+        <v>9422.422200640931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39583.91030305276</v>
+        <v>39583.91030305284</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>321778.1116303672</v>
       </c>
       <c r="D4" t="n">
-        <v>321778.1116303672</v>
+        <v>321778.1116303671</v>
       </c>
       <c r="E4" t="n">
         <v>74919.91119424102</v>
@@ -26432,7 +26432,7 @@
         <v>74919.91119424105</v>
       </c>
       <c r="G4" t="n">
-        <v>74919.91119424102</v>
+        <v>74919.91119424104</v>
       </c>
       <c r="H4" t="n">
         <v>74919.91119424104</v>
@@ -26456,7 +26456,7 @@
         <v>74919.91119424105</v>
       </c>
       <c r="O4" t="n">
-        <v>74919.91119424107</v>
+        <v>74919.91119424105</v>
       </c>
       <c r="P4" t="n">
         <v>74919.91119424104</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157660.7957229636</v>
+        <v>157660.7957229633</v>
       </c>
       <c r="C6" t="n">
+        <v>167083.2179236045</v>
+      </c>
+      <c r="D6" t="n">
         <v>167083.2179236044</v>
       </c>
-      <c r="D6" t="n">
-        <v>167083.2179236043</v>
-      </c>
       <c r="E6" t="n">
-        <v>-254445.7905214927</v>
+        <v>-254866.7427582745</v>
       </c>
       <c r="F6" t="n">
-        <v>245927.7528433041</v>
+        <v>245506.800606522</v>
       </c>
       <c r="G6" t="n">
-        <v>245927.752843304</v>
+        <v>245506.8006065222</v>
       </c>
       <c r="H6" t="n">
-        <v>245927.752843304</v>
+        <v>245506.8006065222</v>
       </c>
       <c r="I6" t="n">
-        <v>156523.389065154</v>
+        <v>156514.9736291015</v>
       </c>
       <c r="J6" t="n">
-        <v>291216.8452284312</v>
+        <v>291208.429792378</v>
       </c>
       <c r="K6" t="n">
-        <v>298573.3090768227</v>
+        <v>298564.8936407696</v>
       </c>
       <c r="L6" t="n">
-        <v>298573.3090768229</v>
+        <v>298564.8936407701</v>
       </c>
       <c r="M6" t="n">
-        <v>206343.8425402512</v>
+        <v>205922.8903034692</v>
       </c>
       <c r="N6" t="n">
-        <v>245927.7528433041</v>
+        <v>245506.8006065222</v>
       </c>
       <c r="O6" t="n">
-        <v>245927.7528433038</v>
+        <v>245506.800606522</v>
       </c>
       <c r="P6" t="n">
-        <v>245927.752843304</v>
+        <v>245506.8006065223</v>
       </c>
     </row>
   </sheetData>
@@ -26828,10 +26828,10 @@
         <v>721.1386057326869</v>
       </c>
       <c r="O4" t="n">
-        <v>721.138605732687</v>
+        <v>721.1386057326869</v>
       </c>
       <c r="P4" t="n">
-        <v>721.138605732687</v>
+        <v>721.1386057326869</v>
       </c>
     </row>
   </sheetData>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>158.8413922049917</v>
+        <v>158.841392204992</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27460,13 +27460,13 @@
         <v>99.52142919304239</v>
       </c>
       <c r="C3" t="n">
-        <v>116.3308444476703</v>
+        <v>88.21453431485057</v>
       </c>
       <c r="D3" t="n">
-        <v>102.8015588998678</v>
+        <v>74.68524876704814</v>
       </c>
       <c r="E3" t="n">
-        <v>78.89006842480458</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
         <v>92.70937201392488</v>
@@ -27517,13 +27517,13 @@
         <v>182.9205141195597</v>
       </c>
       <c r="V3" t="n">
-        <v>174.8070973393067</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W3" t="n">
         <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>133.726262638184</v>
+        <v>137.0777268060161</v>
       </c>
       <c r="Y3" t="n">
         <v>138.2959597602405</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>160.1479988921253</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -27545,13 +27545,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>136.4298136558553</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>142.0268463503655</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>139.8295540437226</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -27587,13 +27587,13 @@
         <v>18.4519170468789</v>
       </c>
       <c r="S4" t="n">
-        <v>140.3173868732368</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>252.6177580497112</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -27703,7 +27703,7 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
-        <v>75.53860425697246</v>
+        <v>78.89006842480458</v>
       </c>
       <c r="F6" t="n">
         <v>92.70937201392488</v>
@@ -27712,7 +27712,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H6" t="n">
-        <v>24.72602217249382</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>80.51100496435802</v>
+        <v>52.39469483153834</v>
       </c>
       <c r="T6" t="n">
         <v>140.4611363452985</v>
@@ -27754,16 +27754,16 @@
         <v>182.9205141195597</v>
       </c>
       <c r="V6" t="n">
-        <v>178.1585615071388</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W6" t="n">
-        <v>194.556163395115</v>
+        <v>166.4398532622953</v>
       </c>
       <c r="X6" t="n">
-        <v>161.8425727710037</v>
+        <v>133.726262638184</v>
       </c>
       <c r="Y6" t="n">
-        <v>110.1796496274208</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>160.1479988921253</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -27788,13 +27788,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>139.8295540437226</v>
       </c>
       <c r="H7" t="n">
         <v>114.2419956741075</v>
       </c>
       <c r="I7" t="n">
-        <v>70.65457244430709</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>254.1295067530638</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -27937,10 +27937,10 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D9" t="n">
-        <v>74.68524876704814</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E9" t="n">
-        <v>75.53860425697246</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F9" t="n">
         <v>92.70937201392488</v>
@@ -27982,22 +27982,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>80.51100496435802</v>
+        <v>52.39469483153834</v>
       </c>
       <c r="T9" t="n">
         <v>112.3448262124788</v>
       </c>
       <c r="U9" t="n">
-        <v>182.9205141195597</v>
+        <v>154.80420398674</v>
       </c>
       <c r="V9" t="n">
-        <v>202.9234074721264</v>
+        <v>178.1585615071388</v>
       </c>
       <c r="W9" t="n">
         <v>194.556163395115</v>
       </c>
       <c r="X9" t="n">
-        <v>137.0777268060162</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y9" t="n">
         <v>138.2959597602405</v>
@@ -28016,19 +28016,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>133.5672950116773</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>145.3783105181976</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>117.5934598419396</v>
+        <v>114.2419956741075</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -34698,16 +34698,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34716,13 +34716,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>26.98029760220071</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="R2" t="n">
-        <v>26.98029760220071</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>19.45843602451198</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="N3" t="n">
+        <v>26.98029760220071</v>
+      </c>
+      <c r="O3" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>28.11631013281968</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="L4" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>26.98029760220071</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35020,25 +35020,25 @@
         <v>28.11631013281968</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>19.45843602451198</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="M6" t="n">
-        <v>19.45843602451199</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="R6" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>28.11631013281968</v>
@@ -35105,16 +35105,16 @@
         <v>26.98029760220071</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>28.11631013281968</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>28.11631013281968</v>
+      </c>
+      <c r="P8" t="n">
+        <v>28.11631013281968</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>26.98029760220071</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="M9" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>26.98029760220071</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,19 +35330,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="K10" t="n">
-        <v>26.98029760220071</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="L10" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35351,7 +35351,7 @@
         <v>28.11631013281968</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,16 +35409,16 @@
         <v>22.06215195647334</v>
       </c>
       <c r="J11" t="n">
-        <v>95.20769405585568</v>
+        <v>490.8937735585084</v>
       </c>
       <c r="K11" t="n">
+        <v>151.0199454774153</v>
+      </c>
+      <c r="L11" t="n">
         <v>721.1386057326869</v>
       </c>
-      <c r="L11" t="n">
-        <v>507.8942295445463</v>
-      </c>
       <c r="M11" t="n">
-        <v>721.1386057326869</v>
+        <v>220.4049405192785</v>
       </c>
       <c r="N11" t="n">
         <v>224.7286399150305</v>
@@ -35430,10 +35430,10 @@
         <v>173.5807655415861</v>
       </c>
       <c r="Q11" t="n">
-        <v>122.4447832239227</v>
+        <v>430.5902304990303</v>
       </c>
       <c r="R11" t="n">
-        <v>57.20602038632837</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.87765302602748</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J12" t="n">
-        <v>53.61626233104985</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K12" t="n">
         <v>104.4671756487053</v>
       </c>
       <c r="L12" t="n">
-        <v>213.7524666439807</v>
+        <v>148.0724571217246</v>
       </c>
       <c r="M12" t="n">
         <v>175.9708370495965</v>
@@ -35503,13 +35503,13 @@
         <v>182.9933168410639</v>
       </c>
       <c r="O12" t="n">
-        <v>721.1386057326869</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P12" t="n">
         <v>128.255226536405</v>
       </c>
       <c r="Q12" t="n">
-        <v>77.54141491376085</v>
+        <v>381.8568134870422</v>
       </c>
       <c r="R12" t="n">
         <v>131.6274520496262</v>
@@ -35573,7 +35573,7 @@
         <v>305.3410754561721</v>
       </c>
       <c r="L13" t="n">
-        <v>456.1981002950138</v>
+        <v>456.1981002950135</v>
       </c>
       <c r="M13" t="n">
         <v>498.3864651663287</v>
@@ -35585,7 +35585,7 @@
         <v>452.118125840538</v>
       </c>
       <c r="P13" t="n">
-        <v>373.197531900354</v>
+        <v>373.1975319003542</v>
       </c>
       <c r="Q13" t="n">
         <v>183.4374740627326</v>
@@ -35646,13 +35646,13 @@
         <v>22.06215195647334</v>
       </c>
       <c r="J14" t="n">
-        <v>95.20769405585568</v>
+        <v>490.8937735585084</v>
       </c>
       <c r="K14" t="n">
-        <v>358.0343941109988</v>
+        <v>151.0199454774153</v>
       </c>
       <c r="L14" t="n">
-        <v>721.1386057326869</v>
+        <v>193.4107038374681</v>
       </c>
       <c r="M14" t="n">
         <v>220.4049405192785</v>
@@ -35664,7 +35664,7 @@
         <v>210.0160134786942</v>
       </c>
       <c r="P14" t="n">
-        <v>173.5807655415861</v>
+        <v>512.6370365677357</v>
       </c>
       <c r="Q14" t="n">
         <v>619.2618613680996</v>
@@ -35725,10 +35725,10 @@
         <v>34.57190135371621</v>
       </c>
       <c r="J15" t="n">
-        <v>202.1227308841083</v>
+        <v>53.61626233104985</v>
       </c>
       <c r="K15" t="n">
-        <v>104.4671756487053</v>
+        <v>110.9522177222615</v>
       </c>
       <c r="L15" t="n">
         <v>148.0724571217246</v>
@@ -35740,16 +35740,16 @@
         <v>182.9933168410639</v>
       </c>
       <c r="O15" t="n">
+        <v>163.7559456574163</v>
+      </c>
+      <c r="P15" t="n">
         <v>721.1386057326869</v>
-      </c>
-      <c r="P15" t="n">
-        <v>128.255226536405</v>
       </c>
       <c r="Q15" t="n">
         <v>77.54141491376085</v>
       </c>
       <c r="R15" t="n">
-        <v>25.10674469113549</v>
+        <v>131.6274520496262</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>721.1386057326869</v>
       </c>
       <c r="M17" t="n">
-        <v>721.1386057326869</v>
+        <v>220.4049405192785</v>
       </c>
       <c r="N17" t="n">
         <v>224.7286399150305</v>
@@ -35901,10 +35901,10 @@
         <v>210.0160134786942</v>
       </c>
       <c r="P17" t="n">
-        <v>173.5807655415861</v>
+        <v>534.3716366779483</v>
       </c>
       <c r="Q17" t="n">
-        <v>479.3190672910533</v>
+        <v>619.2618613680996</v>
       </c>
       <c r="R17" t="n">
         <v>57.20602038632837</v>
@@ -35962,16 +35962,16 @@
         <v>34.57190135371621</v>
       </c>
       <c r="J18" t="n">
-        <v>107.8169149177974</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K18" t="n">
-        <v>104.4671756487053</v>
+        <v>408.7825742219866</v>
       </c>
       <c r="L18" t="n">
         <v>148.0724571217246</v>
       </c>
       <c r="M18" t="n">
-        <v>721.1386057326869</v>
+        <v>175.9708370495965</v>
       </c>
       <c r="N18" t="n">
         <v>182.9933168410639</v>
@@ -36120,19 +36120,19 @@
         <v>22.06215195647334</v>
       </c>
       <c r="J20" t="n">
-        <v>95.20769405585568</v>
+        <v>490.8937735585084</v>
       </c>
       <c r="K20" t="n">
-        <v>721.1386057326869</v>
+        <v>151.0199454774153</v>
       </c>
       <c r="L20" t="n">
         <v>193.4107038374681</v>
       </c>
       <c r="M20" t="n">
-        <v>220.4049405192785</v>
+        <v>559.4612115454279</v>
       </c>
       <c r="N20" t="n">
-        <v>543.1287526913397</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O20" t="n">
         <v>210.0160134786942</v>
@@ -36144,7 +36144,7 @@
         <v>619.2618613680996</v>
       </c>
       <c r="R20" t="n">
-        <v>57.20602038632837</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>10.87765302602748</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J21" t="n">
-        <v>53.61626233104985</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K21" t="n">
         <v>104.4671756487053</v>
       </c>
       <c r="L21" t="n">
-        <v>721.1386057326869</v>
+        <v>148.0724571217246</v>
       </c>
       <c r="M21" t="n">
         <v>175.9708370495965</v>
@@ -36217,10 +36217,10 @@
         <v>163.7559456574163</v>
       </c>
       <c r="P21" t="n">
-        <v>178.2517475229695</v>
+        <v>128.255226536405</v>
       </c>
       <c r="Q21" t="n">
-        <v>77.54141491376085</v>
+        <v>381.8568134870422</v>
       </c>
       <c r="R21" t="n">
         <v>131.6274520496262</v>
@@ -36290,7 +36290,7 @@
         <v>498.3864651663287</v>
       </c>
       <c r="N22" t="n">
-        <v>482.0988174246446</v>
+        <v>482.0988174246447</v>
       </c>
       <c r="O22" t="n">
         <v>452.118125840538</v>
@@ -36357,16 +36357,16 @@
         <v>22.06215195647334</v>
       </c>
       <c r="J23" t="n">
-        <v>95.20769405585568</v>
+        <v>490.8937735585084</v>
       </c>
       <c r="K23" t="n">
         <v>909.5202108939409</v>
       </c>
       <c r="L23" t="n">
-        <v>1170.737945885522</v>
+        <v>193.4107038374681</v>
       </c>
       <c r="M23" t="n">
-        <v>961.6620278820828</v>
+        <v>636.5177908034357</v>
       </c>
       <c r="N23" t="n">
         <v>1248.120443039074</v>
@@ -36375,13 +36375,13 @@
         <v>210.0160134786942</v>
       </c>
       <c r="P23" t="n">
-        <v>173.5807655415861</v>
+        <v>926.5897426628554</v>
       </c>
       <c r="Q23" t="n">
         <v>122.4447832239227</v>
       </c>
       <c r="R23" t="n">
-        <v>57.20602038632837</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>10.87765302602748</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J24" t="n">
         <v>348.6692850276065</v>
       </c>
       <c r="K24" t="n">
-        <v>538.9975299081661</v>
+        <v>408.7825742219868</v>
       </c>
       <c r="L24" t="n">
         <v>148.0724571217246</v>
@@ -36460,7 +36460,7 @@
         <v>77.54141491376085</v>
       </c>
       <c r="R24" t="n">
-        <v>25.10674469113549</v>
+        <v>131.6274520496262</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>909.5202108939409</v>
       </c>
       <c r="L26" t="n">
-        <v>1170.737945885522</v>
+        <v>640.7119344493204</v>
       </c>
       <c r="M26" t="n">
         <v>220.4049405192785</v>
       </c>
       <c r="N26" t="n">
-        <v>1248.120443039074</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O26" t="n">
-        <v>951.2731008414991</v>
+        <v>1101.088437633518</v>
       </c>
       <c r="P26" t="n">
-        <v>173.5807655415861</v>
+        <v>926.5897426628554</v>
       </c>
       <c r="Q26" t="n">
-        <v>122.4447832239227</v>
+        <v>619.2618613680996</v>
       </c>
       <c r="R26" t="n">
-        <v>57.20602038632837</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>10.87765302602748</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J27" t="n">
-        <v>53.61626233104985</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K27" t="n">
         <v>104.4671756487053</v>
       </c>
       <c r="L27" t="n">
-        <v>877.6558340777419</v>
+        <v>148.0724571217246</v>
       </c>
       <c r="M27" t="n">
         <v>175.9708370495965</v>
@@ -36694,10 +36694,10 @@
         <v>128.255226536405</v>
       </c>
       <c r="Q27" t="n">
-        <v>77.54141491376085</v>
+        <v>381.856813487042</v>
       </c>
       <c r="R27" t="n">
-        <v>25.10674469113549</v>
+        <v>131.6274520496262</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>22.06215195647334</v>
       </c>
       <c r="J29" t="n">
-        <v>95.20769405585568</v>
+        <v>490.8937735585084</v>
       </c>
       <c r="K29" t="n">
         <v>909.5202108939409</v>
       </c>
       <c r="L29" t="n">
-        <v>1170.737945885522</v>
+        <v>245.0258549466677</v>
       </c>
       <c r="M29" t="n">
-        <v>1255.319509127562</v>
+        <v>220.4049405192785</v>
       </c>
       <c r="N29" t="n">
         <v>224.7286399150305</v>
       </c>
       <c r="O29" t="n">
-        <v>785.9739128544788</v>
+        <v>1101.088437633518</v>
       </c>
       <c r="P29" t="n">
-        <v>173.5807655415861</v>
+        <v>926.5897426628554</v>
       </c>
       <c r="Q29" t="n">
-        <v>122.4447832239227</v>
+        <v>619.2618613680996</v>
       </c>
       <c r="R29" t="n">
         <v>210.9824428891073</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10.87765302602748</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J30" t="n">
-        <v>164.3509846776333</v>
+        <v>53.61626233104985</v>
       </c>
       <c r="K30" t="n">
-        <v>723.3158302581393</v>
+        <v>104.4671756487053</v>
       </c>
       <c r="L30" t="n">
         <v>148.0724571217246</v>
@@ -36928,13 +36928,13 @@
         <v>163.7559456574163</v>
       </c>
       <c r="P30" t="n">
-        <v>128.255226536405</v>
+        <v>727.6236478062428</v>
       </c>
       <c r="Q30" t="n">
         <v>77.54141491376085</v>
       </c>
       <c r="R30" t="n">
-        <v>25.10674469113549</v>
+        <v>131.6274520496262</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,25 +37068,25 @@
         <v>22.06215195647334</v>
       </c>
       <c r="J32" t="n">
-        <v>95.20769405585568</v>
+        <v>490.8937735585084</v>
       </c>
       <c r="K32" t="n">
-        <v>151.0199454774153</v>
+        <v>546.9103915469074</v>
       </c>
       <c r="L32" t="n">
-        <v>1170.737945885522</v>
+        <v>193.4107038374681</v>
       </c>
       <c r="M32" t="n">
         <v>1255.319509127562</v>
       </c>
       <c r="N32" t="n">
-        <v>309.3607494418949</v>
+        <v>1248.120443039074</v>
       </c>
       <c r="O32" t="n">
         <v>210.0160134786942</v>
       </c>
       <c r="P32" t="n">
-        <v>926.5897426628554</v>
+        <v>173.5807655415861</v>
       </c>
       <c r="Q32" t="n">
         <v>619.2618613680996</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>10.87765302602748</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J33" t="n">
-        <v>53.61626233104985</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K33" t="n">
-        <v>104.4671756487053</v>
+        <v>408.7825742219868</v>
       </c>
       <c r="L33" t="n">
         <v>148.0724571217246</v>
@@ -37162,7 +37162,7 @@
         <v>182.9933168410639</v>
       </c>
       <c r="O33" t="n">
-        <v>893.3393226134336</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P33" t="n">
         <v>128.255226536405</v>
@@ -37171,7 +37171,7 @@
         <v>77.54141491376085</v>
       </c>
       <c r="R33" t="n">
-        <v>25.10674469113549</v>
+        <v>131.6274520496262</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>22.06215195647334</v>
       </c>
       <c r="J35" t="n">
-        <v>95.20769405585568</v>
+        <v>490.8937735585084</v>
       </c>
       <c r="K35" t="n">
         <v>151.0199454774153</v>
@@ -37314,22 +37314,22 @@
         <v>193.4107038374681</v>
       </c>
       <c r="M35" t="n">
-        <v>598.2082336233874</v>
+        <v>220.4049405192785</v>
       </c>
       <c r="N35" t="n">
-        <v>721.1386057326869</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O35" t="n">
-        <v>721.1386057326869</v>
+        <v>210.0160134786942</v>
       </c>
       <c r="P35" t="n">
-        <v>173.5807655415861</v>
+        <v>512.6370365677357</v>
       </c>
       <c r="Q35" t="n">
-        <v>122.4447832239227</v>
+        <v>619.2618613680996</v>
       </c>
       <c r="R35" t="n">
-        <v>57.20602038632837</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>10.87765302602748</v>
       </c>
       <c r="J36" t="n">
-        <v>53.61626233104985</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K36" t="n">
-        <v>134.6464660499502</v>
+        <v>104.4671756487053</v>
       </c>
       <c r="L36" t="n">
         <v>148.0724571217246</v>
@@ -37402,13 +37402,13 @@
         <v>163.7559456574163</v>
       </c>
       <c r="P36" t="n">
-        <v>721.1386057326869</v>
+        <v>128.255226536405</v>
       </c>
       <c r="Q36" t="n">
-        <v>77.54141491376085</v>
+        <v>512.0717691732215</v>
       </c>
       <c r="R36" t="n">
-        <v>131.6274520496262</v>
+        <v>25.10674469113549</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>22.06215195647334</v>
       </c>
       <c r="J38" t="n">
-        <v>490.8937735585084</v>
+        <v>298.3055556202079</v>
       </c>
       <c r="K38" t="n">
         <v>151.0199454774153</v>
       </c>
       <c r="L38" t="n">
-        <v>193.4107038374681</v>
+        <v>721.1386057326869</v>
       </c>
       <c r="M38" t="n">
-        <v>220.4049405192785</v>
+        <v>721.1386057326869</v>
       </c>
       <c r="N38" t="n">
         <v>224.7286399150305</v>
@@ -37560,13 +37560,13 @@
         <v>210.0160134786942</v>
       </c>
       <c r="P38" t="n">
-        <v>721.1386057326869</v>
+        <v>173.5807655415861</v>
       </c>
       <c r="Q38" t="n">
-        <v>564.5367147059271</v>
+        <v>122.4447832239227</v>
       </c>
       <c r="R38" t="n">
-        <v>57.20602038632837</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>10.87765302602748</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J39" t="n">
-        <v>53.61626233104985</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K39" t="n">
-        <v>104.4671756487053</v>
+        <v>408.7825742219866</v>
       </c>
       <c r="L39" t="n">
-        <v>178.2517475229695</v>
+        <v>148.0724571217246</v>
       </c>
       <c r="M39" t="n">
         <v>175.9708370495965</v>
@@ -37639,7 +37639,7 @@
         <v>163.7559456574163</v>
       </c>
       <c r="P39" t="n">
-        <v>721.1386057326869</v>
+        <v>128.255226536405</v>
       </c>
       <c r="Q39" t="n">
         <v>77.54141491376085</v>
@@ -37721,7 +37721,7 @@
         <v>373.1975319003542</v>
       </c>
       <c r="Q40" t="n">
-        <v>183.4374740627326</v>
+        <v>183.4374740627325</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>95.20769405585568</v>
       </c>
       <c r="K41" t="n">
-        <v>721.138605732687</v>
+        <v>721.1386057326869</v>
       </c>
       <c r="L41" t="n">
         <v>193.4107038374681</v>
@@ -37794,13 +37794,13 @@
         <v>224.7286399150305</v>
       </c>
       <c r="O41" t="n">
-        <v>210.0160134786942</v>
+        <v>374.6397037522247</v>
       </c>
       <c r="P41" t="n">
-        <v>721.138605732687</v>
+        <v>173.5807655415861</v>
       </c>
       <c r="Q41" t="n">
-        <v>236.3277114505299</v>
+        <v>619.2618613680996</v>
       </c>
       <c r="R41" t="n">
         <v>210.9824428891073</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>10.87765302602748</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J42" t="n">
         <v>348.6692850276065</v>
@@ -37879,7 +37879,7 @@
         <v>128.255226536405</v>
       </c>
       <c r="Q42" t="n">
-        <v>405.5510618147307</v>
+        <v>381.8568134870422</v>
       </c>
       <c r="R42" t="n">
         <v>131.6274520496262</v>
@@ -37952,13 +37952,13 @@
         <v>482.0988174246447</v>
       </c>
       <c r="O43" t="n">
-        <v>452.1181258405383</v>
+        <v>452.118125840538</v>
       </c>
       <c r="P43" t="n">
         <v>373.1975319003542</v>
       </c>
       <c r="Q43" t="n">
-        <v>183.4374740627326</v>
+        <v>183.4374740627325</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,22 +38016,22 @@
         <v>22.06215195647334</v>
       </c>
       <c r="J44" t="n">
-        <v>95.20769405585568</v>
+        <v>490.8937735585084</v>
       </c>
       <c r="K44" t="n">
-        <v>721.138605732687</v>
+        <v>151.0199454774153</v>
       </c>
       <c r="L44" t="n">
         <v>193.4107038374681</v>
       </c>
       <c r="M44" t="n">
-        <v>538.805053295588</v>
+        <v>220.4049405192785</v>
       </c>
       <c r="N44" t="n">
         <v>224.7286399150305</v>
       </c>
       <c r="O44" t="n">
-        <v>210.0160134786942</v>
+        <v>549.0722845048437</v>
       </c>
       <c r="P44" t="n">
         <v>173.5807655415861</v>
@@ -38040,7 +38040,7 @@
         <v>619.2618613680996</v>
       </c>
       <c r="R44" t="n">
-        <v>57.20602038632837</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.57190135371621</v>
+        <v>10.87765302602748</v>
       </c>
       <c r="J45" t="n">
-        <v>53.61626233104985</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K45" t="n">
-        <v>212.2547436166565</v>
+        <v>104.4671756487053</v>
       </c>
       <c r="L45" t="n">
         <v>148.0724571217246</v>
@@ -38116,7 +38116,7 @@
         <v>128.255226536405</v>
       </c>
       <c r="Q45" t="n">
-        <v>569.1222682156478</v>
+        <v>405.5510618147307</v>
       </c>
       <c r="R45" t="n">
         <v>131.6274520496262</v>
@@ -38177,7 +38177,7 @@
         <v>104.6399194220268</v>
       </c>
       <c r="K46" t="n">
-        <v>305.3410754561721</v>
+        <v>305.3410754561719</v>
       </c>
       <c r="L46" t="n">
         <v>456.1981002950138</v>
